--- a/data/nzd0018/nzd0018.xlsx
+++ b/data/nzd0018/nzd0018.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA217"/>
+  <dimension ref="A1:AA219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18055,6 +18055,180 @@
         </is>
       </c>
     </row>
+    <row r="218">
+      <c r="A218" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>387.0954545454546</v>
+      </c>
+      <c r="C218" t="n">
+        <v>388.2254545454546</v>
+      </c>
+      <c r="D218" t="n">
+        <v>386.1</v>
+      </c>
+      <c r="E218" t="n">
+        <v>383.08</v>
+      </c>
+      <c r="F218" t="n">
+        <v>390.22</v>
+      </c>
+      <c r="G218" t="n">
+        <v>379.12</v>
+      </c>
+      <c r="H218" t="n">
+        <v>384.96</v>
+      </c>
+      <c r="I218" t="n">
+        <v>384.53</v>
+      </c>
+      <c r="J218" t="n">
+        <v>385.08</v>
+      </c>
+      <c r="K218" t="n">
+        <v>383.59</v>
+      </c>
+      <c r="L218" t="n">
+        <v>389.2854545454546</v>
+      </c>
+      <c r="M218" t="n">
+        <v>399.4554545454546</v>
+      </c>
+      <c r="N218" t="n">
+        <v>403.23</v>
+      </c>
+      <c r="O218" t="n">
+        <v>407.02</v>
+      </c>
+      <c r="P218" t="n">
+        <v>409.7600000000001</v>
+      </c>
+      <c r="Q218" t="n">
+        <v>409.78</v>
+      </c>
+      <c r="R218" t="n">
+        <v>405.4854545454546</v>
+      </c>
+      <c r="S218" t="n">
+        <v>401.19</v>
+      </c>
+      <c r="T218" t="n">
+        <v>408.72</v>
+      </c>
+      <c r="U218" t="n">
+        <v>411.71</v>
+      </c>
+      <c r="V218" t="n">
+        <v>412.53</v>
+      </c>
+      <c r="W218" t="n">
+        <v>387.8666666666667</v>
+      </c>
+      <c r="X218" t="n">
+        <v>408.5666666666667</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>413.4766666666667</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>416.52</v>
+      </c>
+      <c r="AA218" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>391.7172727272728</v>
+      </c>
+      <c r="C219" t="n">
+        <v>385.1372727272728</v>
+      </c>
+      <c r="D219" t="n">
+        <v>372.8866666666667</v>
+      </c>
+      <c r="E219" t="n">
+        <v>367.3766666666667</v>
+      </c>
+      <c r="F219" t="n">
+        <v>374.51</v>
+      </c>
+      <c r="G219" t="n">
+        <v>370.5</v>
+      </c>
+      <c r="H219" t="n">
+        <v>373.54</v>
+      </c>
+      <c r="I219" t="n">
+        <v>359</v>
+      </c>
+      <c r="J219" t="n">
+        <v>368.9366666666667</v>
+      </c>
+      <c r="K219" t="n">
+        <v>367.78</v>
+      </c>
+      <c r="L219" t="n">
+        <v>374.9872727272728</v>
+      </c>
+      <c r="M219" t="n">
+        <v>383.1272727272727</v>
+      </c>
+      <c r="N219" t="n">
+        <v>383.36</v>
+      </c>
+      <c r="O219" t="n">
+        <v>385.1366666666667</v>
+      </c>
+      <c r="P219" t="n">
+        <v>390.14</v>
+      </c>
+      <c r="Q219" t="n">
+        <v>389.21</v>
+      </c>
+      <c r="R219" t="n">
+        <v>384.3172727272727</v>
+      </c>
+      <c r="S219" t="n">
+        <v>387.11</v>
+      </c>
+      <c r="T219" t="n">
+        <v>396.62</v>
+      </c>
+      <c r="U219" t="n">
+        <v>400.47</v>
+      </c>
+      <c r="V219" t="n">
+        <v>400.11</v>
+      </c>
+      <c r="W219" t="n">
+        <v>387.5988888888889</v>
+      </c>
+      <c r="X219" t="n">
+        <v>386.0288888888889</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>393.2988888888889</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>389.39</v>
+      </c>
+      <c r="AA219" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18066,7 +18240,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B220"/>
+  <dimension ref="A1:B222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20274,6 +20448,26 @@
       </c>
       <c r="B220" t="n">
         <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>1.03</v>
       </c>
     </row>
   </sheetData>
@@ -20442,28 +20636,28 @@
         <v>0.0634</v>
       </c>
       <c r="I2" t="n">
-        <v>0.182268877525543</v>
+        <v>0.1911326311515426</v>
       </c>
       <c r="J2" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K2" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01265984140670118</v>
+        <v>0.01420956043117505</v>
       </c>
       <c r="M2" t="n">
-        <v>9.569064842331827</v>
+        <v>9.509032922764012</v>
       </c>
       <c r="N2" t="n">
-        <v>142.2326417349957</v>
+        <v>141.0015031003383</v>
       </c>
       <c r="O2" t="n">
-        <v>11.92613272335151</v>
+        <v>11.87440537881111</v>
       </c>
       <c r="P2" t="n">
-        <v>380.5045519806153</v>
+        <v>380.4219121589581</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -20519,28 +20713,28 @@
         <v>0.0633</v>
       </c>
       <c r="I3" t="n">
-        <v>0.187285601816286</v>
+        <v>0.2030294425303792</v>
       </c>
       <c r="J3" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K3" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01157022121337292</v>
+        <v>0.01384135840696366</v>
       </c>
       <c r="M3" t="n">
-        <v>10.10347391550606</v>
+        <v>10.06984829645206</v>
       </c>
       <c r="N3" t="n">
-        <v>163.770885409333</v>
+        <v>162.6967242495672</v>
       </c>
       <c r="O3" t="n">
-        <v>12.79729992652094</v>
+        <v>12.75526260998053</v>
       </c>
       <c r="P3" t="n">
-        <v>374.2936620040169</v>
+        <v>374.1472231299323</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -20596,28 +20790,28 @@
         <v>0.06710000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0192983564957578</v>
+        <v>0.0344967565444813</v>
       </c>
       <c r="J4" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K4" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L4" t="n">
-        <v>8.986541887867627e-05</v>
+        <v>0.0002927386786620856</v>
       </c>
       <c r="M4" t="n">
-        <v>11.96262240056371</v>
+        <v>11.9045233171292</v>
       </c>
       <c r="N4" t="n">
-        <v>223.3145944598701</v>
+        <v>222.0189558728369</v>
       </c>
       <c r="O4" t="n">
-        <v>14.94371421233256</v>
+        <v>14.90030052961473</v>
       </c>
       <c r="P4" t="n">
-        <v>371.6656185600164</v>
+        <v>371.5232843200656</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -20673,28 +20867,28 @@
         <v>0.076</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.04113511353806206</v>
+        <v>-0.0230887289057523</v>
       </c>
       <c r="J5" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K5" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0003027800265862357</v>
+        <v>9.727891408461975e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>13.91914695718675</v>
+        <v>13.86543676785669</v>
       </c>
       <c r="N5" t="n">
-        <v>294.9043748561239</v>
+        <v>293.2232902250508</v>
       </c>
       <c r="O5" t="n">
-        <v>17.17278005612731</v>
+        <v>17.12376390356544</v>
       </c>
       <c r="P5" t="n">
-        <v>367.7513427250965</v>
+        <v>367.5789259469091</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -20750,28 +20944,28 @@
         <v>0.0489</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1290225309787766</v>
+        <v>-0.09884896134218057</v>
       </c>
       <c r="J6" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K6" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001970447006967357</v>
+        <v>0.00117992249250809</v>
       </c>
       <c r="M6" t="n">
-        <v>17.07948350264707</v>
+        <v>17.04149353986464</v>
       </c>
       <c r="N6" t="n">
-        <v>441.6466150567175</v>
+        <v>439.4558297071399</v>
       </c>
       <c r="O6" t="n">
-        <v>21.0153899572841</v>
+        <v>20.96320179999086</v>
       </c>
       <c r="P6" t="n">
-        <v>372.090853498625</v>
+        <v>371.7999437764006</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -20827,28 +21021,28 @@
         <v>0.0599</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3144609689309997</v>
+        <v>-0.2795691989083295</v>
       </c>
       <c r="J7" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K7" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01214493454868693</v>
+        <v>0.009789958046812264</v>
       </c>
       <c r="M7" t="n">
-        <v>17.16894062718954</v>
+        <v>17.16726791096614</v>
       </c>
       <c r="N7" t="n">
-        <v>429.9592628727445</v>
+        <v>428.409016968474</v>
       </c>
       <c r="O7" t="n">
-        <v>20.73545907070168</v>
+        <v>20.69804379569417</v>
       </c>
       <c r="P7" t="n">
-        <v>366.353971182336</v>
+        <v>366.0230506275905</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -20904,28 +21098,28 @@
         <v>0.056</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03319650145451152</v>
+        <v>0.07716958178654758</v>
       </c>
       <c r="J8" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K8" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001083656904296015</v>
+        <v>0.0005955660017563646</v>
       </c>
       <c r="M8" t="n">
-        <v>18.97595401638522</v>
+        <v>18.99190759763307</v>
       </c>
       <c r="N8" t="n">
-        <v>532.7585307863287</v>
+        <v>531.3066310201402</v>
       </c>
       <c r="O8" t="n">
-        <v>23.08156257245875</v>
+        <v>23.05008960980717</v>
       </c>
       <c r="P8" t="n">
-        <v>358.9070835654306</v>
+        <v>358.4848296560149</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -20981,28 +21175,28 @@
         <v>0.0611</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2278831770766517</v>
+        <v>-0.203091943094364</v>
       </c>
       <c r="J9" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K9" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006408586361563051</v>
+        <v>0.005182630255287202</v>
       </c>
       <c r="M9" t="n">
-        <v>16.69339658079248</v>
+        <v>16.65746980045823</v>
       </c>
       <c r="N9" t="n">
-        <v>425.7146512940867</v>
+        <v>424.2670851086925</v>
       </c>
       <c r="O9" t="n">
-        <v>20.63285368760431</v>
+        <v>20.59774466073149</v>
       </c>
       <c r="P9" t="n">
-        <v>366.0677548411711</v>
+        <v>365.8287980501516</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -21058,28 +21252,28 @@
         <v>0.0682</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03474130251668069</v>
+        <v>0.05597213458195205</v>
       </c>
       <c r="J10" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K10" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0001838952921865422</v>
+        <v>0.0004863387342916026</v>
       </c>
       <c r="M10" t="n">
-        <v>15.44888393274813</v>
+        <v>15.39830950269948</v>
       </c>
       <c r="N10" t="n">
-        <v>346.9008010493763</v>
+        <v>344.8610318861906</v>
       </c>
       <c r="O10" t="n">
-        <v>18.62527318053017</v>
+        <v>18.57043434834497</v>
       </c>
       <c r="P10" t="n">
-        <v>366.309712961975</v>
+        <v>366.1037018061256</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -21135,28 +21329,28 @@
         <v>0.0471</v>
       </c>
       <c r="I11" t="n">
-        <v>0.04937329753187117</v>
+        <v>0.07024307253053132</v>
       </c>
       <c r="J11" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K11" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0002971419890380744</v>
+        <v>0.0006132068672489721</v>
       </c>
       <c r="M11" t="n">
-        <v>16.54212218693431</v>
+        <v>16.46535327142967</v>
       </c>
       <c r="N11" t="n">
-        <v>429.1939904883567</v>
+        <v>426.1409751192768</v>
       </c>
       <c r="O11" t="n">
-        <v>20.71699762244415</v>
+        <v>20.64318229148008</v>
       </c>
       <c r="P11" t="n">
-        <v>364.838782620863</v>
+        <v>364.6327177081503</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -21212,28 +21406,28 @@
         <v>0.06660000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2896671402135622</v>
+        <v>-0.2604872642956361</v>
       </c>
       <c r="J12" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K12" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01036261539376637</v>
+        <v>0.008546729866867886</v>
       </c>
       <c r="M12" t="n">
-        <v>16.91624889047281</v>
+        <v>16.89100199898919</v>
       </c>
       <c r="N12" t="n">
-        <v>421.9240726687708</v>
+        <v>419.9032010356505</v>
       </c>
       <c r="O12" t="n">
-        <v>20.54079045871338</v>
+        <v>20.49153974291953</v>
       </c>
       <c r="P12" t="n">
-        <v>375.8629868096755</v>
+        <v>375.5795723922121</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -21289,28 +21483,28 @@
         <v>0.0639</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01888223178738406</v>
+        <v>0.03358249255695225</v>
       </c>
       <c r="J13" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K13" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L13" t="n">
-        <v>5.960736731447369e-05</v>
+        <v>0.0001923607894588342</v>
       </c>
       <c r="M13" t="n">
-        <v>14.93070927363709</v>
+        <v>14.87067057237955</v>
       </c>
       <c r="N13" t="n">
-        <v>324.3055594572054</v>
+        <v>322.1485611089109</v>
       </c>
       <c r="O13" t="n">
-        <v>18.00848576247335</v>
+        <v>17.94849746103865</v>
       </c>
       <c r="P13" t="n">
-        <v>383.7341997611274</v>
+        <v>383.5966051167836</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -21366,28 +21560,28 @@
         <v>0.0561</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1311561508247766</v>
+        <v>0.1475564260689973</v>
       </c>
       <c r="J14" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K14" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L14" t="n">
-        <v>0.002801442824764688</v>
+        <v>0.003608273093380965</v>
       </c>
       <c r="M14" t="n">
-        <v>14.64736234074801</v>
+        <v>14.61339520012049</v>
       </c>
       <c r="N14" t="n">
-        <v>331.0495876233571</v>
+        <v>329.3527512673128</v>
       </c>
       <c r="O14" t="n">
-        <v>18.19476813876333</v>
+        <v>18.14807844559067</v>
       </c>
       <c r="P14" t="n">
-        <v>381.8631577177163</v>
+        <v>381.7092275984756</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -21443,28 +21637,28 @@
         <v>0.0684</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1868776947317492</v>
+        <v>0.2063213351372515</v>
       </c>
       <c r="J15" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K15" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L15" t="n">
-        <v>0.006543546248337528</v>
+        <v>0.00808981441786194</v>
       </c>
       <c r="M15" t="n">
-        <v>13.69256260705927</v>
+        <v>13.68841399013678</v>
       </c>
       <c r="N15" t="n">
-        <v>285.396812702231</v>
+        <v>284.6096600187753</v>
       </c>
       <c r="O15" t="n">
-        <v>16.89369150606909</v>
+        <v>16.87037818244675</v>
       </c>
       <c r="P15" t="n">
-        <v>381.7877368033574</v>
+        <v>381.6037379645045</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -21520,28 +21714,28 @@
         <v>0.0551</v>
       </c>
       <c r="I16" t="n">
-        <v>0.08131042872944397</v>
+        <v>0.1033447637330079</v>
       </c>
       <c r="J16" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K16" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001255688721786163</v>
+        <v>0.002058939102580926</v>
       </c>
       <c r="M16" t="n">
-        <v>13.64959302708784</v>
+        <v>13.61886954918938</v>
       </c>
       <c r="N16" t="n">
-        <v>280.8756504337179</v>
+        <v>280.161210008935</v>
       </c>
       <c r="O16" t="n">
-        <v>16.75934516721098</v>
+        <v>16.73801690789369</v>
       </c>
       <c r="P16" t="n">
-        <v>387.0673445528511</v>
+        <v>386.8585382312968</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -21597,28 +21791,28 @@
         <v>0.0601</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.1381752377000101</v>
+        <v>-0.1146282756851416</v>
       </c>
       <c r="J17" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K17" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L17" t="n">
-        <v>0.003489062522267106</v>
+        <v>0.002442364274157116</v>
       </c>
       <c r="M17" t="n">
-        <v>13.69993572382242</v>
+        <v>13.69205598796255</v>
       </c>
       <c r="N17" t="n">
-        <v>286.9907922801901</v>
+        <v>286.4394925865696</v>
       </c>
       <c r="O17" t="n">
-        <v>16.94080258666012</v>
+        <v>16.92452340795952</v>
       </c>
       <c r="P17" t="n">
-        <v>391.6252168392856</v>
+        <v>391.4027395072602</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -21674,28 +21868,28 @@
         <v>0.06610000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.0119417379955088</v>
+        <v>0.005880211732453701</v>
       </c>
       <c r="J18" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K18" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L18" t="n">
-        <v>2.488659237165347e-05</v>
+        <v>6.141192760766856e-06</v>
       </c>
       <c r="M18" t="n">
-        <v>14.07737756247856</v>
+        <v>14.05591384337144</v>
       </c>
       <c r="N18" t="n">
-        <v>302.5152626943359</v>
+        <v>301.2994101291412</v>
       </c>
       <c r="O18" t="n">
-        <v>17.39296589700376</v>
+        <v>17.35797828461429</v>
       </c>
       <c r="P18" t="n">
-        <v>386.6519343732656</v>
+        <v>386.481977379296</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -21751,28 +21945,28 @@
         <v>0.0581</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.0880334844349682</v>
+        <v>-0.07150398100016989</v>
       </c>
       <c r="J19" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K19" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001476848645065032</v>
+        <v>0.0009942507495028785</v>
       </c>
       <c r="M19" t="n">
-        <v>13.5564566822526</v>
+        <v>13.50564121353641</v>
       </c>
       <c r="N19" t="n">
-        <v>278.7799064853907</v>
+        <v>277.057816389291</v>
       </c>
       <c r="O19" t="n">
-        <v>16.69670346162351</v>
+        <v>16.64505381154687</v>
       </c>
       <c r="P19" t="n">
-        <v>388.4793262993068</v>
+        <v>388.322470758751</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -21828,28 +22022,28 @@
         <v>0.0475</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.1454000713170024</v>
+        <v>-0.1113616894838772</v>
       </c>
       <c r="J20" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K20" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L20" t="n">
-        <v>0.003552003496389955</v>
+        <v>0.002116677413159351</v>
       </c>
       <c r="M20" t="n">
-        <v>14.18797350304654</v>
+        <v>14.21940813850067</v>
       </c>
       <c r="N20" t="n">
-        <v>312.7989061770876</v>
+        <v>312.6063781404643</v>
       </c>
       <c r="O20" t="n">
-        <v>17.68612185237588</v>
+        <v>17.68067810182812</v>
       </c>
       <c r="P20" t="n">
-        <v>390.0644892391122</v>
+        <v>389.7401152866674</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -21905,28 +22099,28 @@
         <v>0.0455</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.1687679033768465</v>
+        <v>-0.1349058564008464</v>
       </c>
       <c r="J21" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K21" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L21" t="n">
-        <v>0.004538423767031952</v>
+        <v>0.002947673784645</v>
       </c>
       <c r="M21" t="n">
-        <v>14.35355110343378</v>
+        <v>14.38597238015383</v>
       </c>
       <c r="N21" t="n">
-        <v>330.5487693887263</v>
+        <v>330.1471841206723</v>
       </c>
       <c r="O21" t="n">
-        <v>18.18100023070036</v>
+        <v>18.16995278256585</v>
       </c>
       <c r="P21" t="n">
-        <v>394.0257257710406</v>
+        <v>393.7033602185007</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -21982,28 +22176,28 @@
         <v>0.045</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.0009212511275414746</v>
+        <v>0.04352398705695721</v>
       </c>
       <c r="J22" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K22" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L22" t="n">
-        <v>1.075335368527774e-07</v>
+        <v>0.0002427764895875928</v>
       </c>
       <c r="M22" t="n">
-        <v>16.79855575141506</v>
+        <v>16.84688944101521</v>
       </c>
       <c r="N22" t="n">
-        <v>449.6299820578919</v>
+        <v>450.0417824232828</v>
       </c>
       <c r="O22" t="n">
-        <v>21.20448023550429</v>
+        <v>21.21418823389862</v>
       </c>
       <c r="P22" t="n">
-        <v>384.7804876840865</v>
+        <v>384.3725466431422</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -22059,28 +22253,28 @@
         <v>0.048</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.1979620022467131</v>
+        <v>-0.1732860815608158</v>
       </c>
       <c r="J23" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K23" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L23" t="n">
-        <v>0.003724949809657985</v>
+        <v>0.002923789319374759</v>
       </c>
       <c r="M23" t="n">
-        <v>19.44470747912112</v>
+        <v>19.33405951046647</v>
       </c>
       <c r="N23" t="n">
-        <v>580.3546941410185</v>
+        <v>575.0797229293588</v>
       </c>
       <c r="O23" t="n">
-        <v>24.09055196837587</v>
+        <v>23.98081989693761</v>
       </c>
       <c r="P23" t="n">
-        <v>381.7972348891893</v>
+        <v>381.5675407098443</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -22136,28 +22330,28 @@
         <v>0.0492</v>
       </c>
       <c r="I24" t="n">
-        <v>0.376934376652438</v>
+        <v>0.3947188827541872</v>
       </c>
       <c r="J24" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K24" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0176233487041233</v>
+        <v>0.01965983388768877</v>
       </c>
       <c r="M24" t="n">
-        <v>16.77458832337416</v>
+        <v>16.71965945110622</v>
       </c>
       <c r="N24" t="n">
-        <v>419.9738002618672</v>
+        <v>417.5522962254238</v>
       </c>
       <c r="O24" t="n">
-        <v>20.4932623137915</v>
+        <v>20.43409641323599</v>
       </c>
       <c r="P24" t="n">
-        <v>379.4295365246194</v>
+        <v>379.2587894554895</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -22213,28 +22407,28 @@
         <v>0.051</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5320998944031778</v>
+        <v>0.5515161647743629</v>
       </c>
       <c r="J25" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K25" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0377004014904494</v>
+        <v>0.04113565317188106</v>
       </c>
       <c r="M25" t="n">
-        <v>15.66059027175362</v>
+        <v>15.6029050148451</v>
       </c>
       <c r="N25" t="n">
-        <v>384.18413577504</v>
+        <v>382.0292479976588</v>
       </c>
       <c r="O25" t="n">
-        <v>19.6006156988764</v>
+        <v>19.54556850024217</v>
       </c>
       <c r="P25" t="n">
-        <v>380.7830290784215</v>
+        <v>380.5971207066907</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -22290,28 +22484,28 @@
         <v>0.056</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2767962405615289</v>
+        <v>0.301757278541494</v>
       </c>
       <c r="J26" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K26" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01259987421188991</v>
+        <v>0.01514713389175104</v>
       </c>
       <c r="M26" t="n">
-        <v>13.95541109985092</v>
+        <v>13.96519127862673</v>
       </c>
       <c r="N26" t="n">
-        <v>322.143092798605</v>
+        <v>322.056746465124</v>
       </c>
       <c r="O26" t="n">
-        <v>17.94834512701951</v>
+        <v>17.94593955370194</v>
       </c>
       <c r="P26" t="n">
-        <v>384.3209747336589</v>
+        <v>384.084530890657</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -22348,7 +22542,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA217"/>
+  <dimension ref="A1:AA219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49465,6 +49659,280 @@
         </is>
       </c>
     </row>
+    <row r="218">
+      <c r="A218" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>-34.771996733009246,173.14933720767868</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>-34.772566292520025,173.14878586515107</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>-34.77314113766925,173.14828774982178</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>-34.77378770099635,173.14789629345074</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>-34.77445686673764,173.14761036422135</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>-34.77513696591727,173.1473601775187</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>-34.77586096748285,173.14730108108967</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>-34.77657907700658,173.14729746108668</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>-34.7773004163853,173.1473454024168</t>
+        </is>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>-34.778017310719044,173.14747637683732</t>
+        </is>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>-34.778732488754294,173.1476994286986</t>
+        </is>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>-34.77941236975752,173.14796282616578</t>
+        </is>
+      </c>
+      <c r="N218" t="inlineStr">
+        <is>
+          <t>-34.780050141994195,173.14831121282973</t>
+        </is>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>-34.7807069266679,173.14870389979677</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>-34.7813610390972,173.14908234979873</t>
+        </is>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>-34.781984864125796,173.1494762899548</t>
+        </is>
+      </c>
+      <c r="R218" t="inlineStr">
+        <is>
+          <t>-34.78261114748273,173.14990924166196</t>
+        </is>
+      </c>
+      <c r="S218" t="inlineStr">
+        <is>
+          <t>-34.78325355029005,173.15035375653636</t>
+        </is>
+      </c>
+      <c r="T218" t="inlineStr">
+        <is>
+          <t>-34.783838465510705,173.15090713735668</t>
+        </is>
+      </c>
+      <c r="U218" t="inlineStr">
+        <is>
+          <t>-34.78442895521279,173.15140561670734</t>
+        </is>
+      </c>
+      <c r="V218" t="inlineStr">
+        <is>
+          <t>-34.78498403876557,173.15194383458115</t>
+        </is>
+      </c>
+      <c r="W218" t="inlineStr">
+        <is>
+          <t>-34.78568880367653,173.15230756859071</t>
+        </is>
+      </c>
+      <c r="X218" t="inlineStr">
+        <is>
+          <t>-34.78614945955149,173.15305124887607</t>
+        </is>
+      </c>
+      <c r="Y218" t="inlineStr">
+        <is>
+          <t>-34.78670596201373,173.15364899806036</t>
+        </is>
+      </c>
+      <c r="Z218" t="inlineStr">
+        <is>
+          <t>-34.78727035165788,173.15422837216317</t>
+        </is>
+      </c>
+      <c r="AA218" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>-34.77202304416975,173.14937638005662</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>-34.772549755861846,173.14875871026015</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>-34.77308349246364,173.14816136998417</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>-34.77372961709677,173.14773977748206</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>-34.774416575823835,173.14744576311762</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>-34.77512569108297,173.14726696692588</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>-34.7758539804951,173.14717655992186</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>-34.77658491295314,173.1470185318912</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>-34.77731613456852,173.1471700008792</t>
+        </is>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>-34.7780421050188,173.14730621844942</t>
+        </is>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>-34.77875583630022,173.14754574225765</t>
+        </is>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>-34.7794525519994,173.14779114204114</t>
+        </is>
+      </c>
+      <c r="N219" t="inlineStr">
+        <is>
+          <t>-34.780118367944866,173.14811040199072</t>
+        </is>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>-34.78078560223135,173.14848455401477</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>-34.7814370523034,173.14888870862828</t>
+        </is>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>-34.78207764529005,173.14928160892453</t>
+        </is>
+      </c>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>-34.78271404411623,173.14971436706884</t>
+        </is>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>-34.78332199222858,173.15022413512864</t>
+        </is>
+      </c>
+      <c r="T219" t="inlineStr">
+        <is>
+          <t>-34.783897283155866,173.15079574346146</t>
+        </is>
+      </c>
+      <c r="U219" t="inlineStr">
+        <is>
+          <t>-34.78448745321062,173.15130528786386</t>
+        </is>
+      </c>
+      <c r="V219" t="inlineStr">
+        <is>
+          <t>-34.78505429647812,173.1518381133123</t>
+        </is>
+      </c>
+      <c r="W219" t="inlineStr">
+        <is>
+          <t>-34.78569033520587,173.152305305712</t>
+        </is>
+      </c>
+      <c r="X219" t="inlineStr">
+        <is>
+          <t>-34.78627588305441,173.15285836434137</t>
+        </is>
+      </c>
+      <c r="Y219" t="inlineStr">
+        <is>
+          <t>-34.78681803707592,173.15347524931494</t>
+        </is>
+      </c>
+      <c r="Z219" t="inlineStr">
+        <is>
+          <t>-34.78742104267803,173.153994757563</t>
+        </is>
+      </c>
+      <c r="AA219" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0018/nzd0018.xlsx
+++ b/data/nzd0018/nzd0018.xlsx
@@ -20481,7 +20481,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20572,35 +20572,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -20659,27 +20664,28 @@
       <c r="P2" t="n">
         <v>380.4219121589581</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.14605645511963 -34.76979302445235, 173.1539235626029 -34.77507707894562)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.1460564551196</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-34.76979302445235</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.1539235626029</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-34.77507707894562</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.1499900088613</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-34.77243505169898</v>
       </c>
     </row>
@@ -20736,27 +20742,28 @@
       <c r="P3" t="n">
         <v>374.1472231299323</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.14537221969024 -34.77048736699604, 173.1535347356173 -34.775458041767244)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.1453722196902</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-34.77048736699604</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.1535347356173</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-34.77545804176724</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.1494534776538</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-34.77297270438164</v>
       </c>
     </row>
@@ -20813,27 +20820,28 @@
       <c r="P4" t="n">
         <v>371.5232843200656</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.1445949420841 -34.77145666234465, 173.15347519451853 -34.77550708606863)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.1445949420841</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-34.77145666234465</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.1534751945185</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-34.77550708606863</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.1490350683013</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-34.77348187420664</v>
       </c>
     </row>
@@ -20890,27 +20898,28 @@
       <c r="P5" t="n">
         <v>367.5789259469091</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (173.14407817689107 -34.772370696952805, 173.153333060377 -34.77580513785122)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>173.1440781768911</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-34.77237069695281</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>173.153333060377</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-34.77580513785122</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>173.148705618634</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-34.77408791740201</v>
       </c>
     </row>
@@ -20967,27 +20976,28 @@
       <c r="P6" t="n">
         <v>371.7999437764006</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (173.14352189179095 -34.77345601641525, 173.1532520341917 -34.77583767126334)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>173.143521891791</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-34.77345601641525</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>173.1532520341917</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-34.77583767126334</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>173.1483869629913</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-34.77464684383929</v>
       </c>
     </row>
@@ -21044,27 +21054,28 @@
       <c r="P7" t="n">
         <v>366.0230506275905</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (173.14326066528884 -34.77464101495361, 173.15330358852177 -34.775855732283794)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>173.1432606652888</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-34.77464101495361</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>173.1533035885218</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-34.77585573228379</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>173.1482821269053</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-34.7752483736187</v>
       </c>
     </row>
@@ -21121,27 +21132,28 @@
       <c r="P8" t="n">
         <v>358.4848296560149</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (173.14310357325337 -34.77562537089497, 173.15323075716518 -34.77619353776609)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>173.1431035732534</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-34.77562537089497</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>173.1532307571652</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-34.77619353776609</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>173.1481671652093</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-34.77590945433053</v>
       </c>
     </row>
@@ -21198,27 +21210,28 @@
       <c r="P9" t="n">
         <v>365.8287980501516</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (173.14309625638668 -34.77666690971297, 173.15324367242175 -34.77645451411314)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>173.1430962563867</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-34.77666690971297</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>173.1532436724218</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-34.77645451411314</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>173.1481699644042</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-34.77656071191306</v>
       </c>
     </row>
@@ -21275,27 +21288,28 @@
       <c r="P10" t="n">
         <v>366.1037018061256</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (173.1431613891503 -34.777675286085255, 173.1532525893998 -34.77677090713005)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>173.1431613891503</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-34.77767528608526</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>173.1532525893998</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-34.77677090713005</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>173.1482069892751</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-34.77722309660766</v>
       </c>
     </row>
@@ -21352,27 +21366,28 @@
       <c r="P11" t="n">
         <v>364.6327177081503</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (173.1433478813284 -34.77861881514581, 173.15334349127707 -34.77716224097336)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>173.1433478813284</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-34.77861881514581</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>173.1533434912771</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-34.77716224097336</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>173.1483456863027</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-34.77789052805959</v>
       </c>
     </row>
@@ -21429,27 +21444,28 @@
       <c r="P12" t="n">
         <v>375.5795723922121</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (173.1435150965723 -34.77936808496938, 173.15349760033564 -34.77785149798479)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>173.1435150965723</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-34.77936808496938</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>173.1534976003356</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-34.77785149798479</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>173.148506348454</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-34.77860979147708</v>
       </c>
     </row>
@@ -21506,27 +21522,28 @@
       <c r="P13" t="n">
         <v>383.5966051167836</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (173.14376266813014 -34.7803953255983, 173.1535270830077 -34.778109917096344)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>173.1437626681301</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-34.7803953255983</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>173.1535270830077</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-34.77810991709634</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>173.1486448755689</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-34.77925262134733</v>
       </c>
     </row>
@@ -21583,27 +21600,28 @@
       <c r="P14" t="n">
         <v>381.7092275984756</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (173.14423601178925 -34.78143461415371, 173.15362010170253 -34.778246273643795)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>173.1442360117892</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-34.78143461415371</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>173.1536201017025</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-34.77824627364379</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>173.1489280567459</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-34.77984044389875</v>
       </c>
     </row>
@@ -21660,27 +21678,28 @@
       <c r="P15" t="n">
         <v>381.6037379645045</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (173.1446241001252 -34.7821701915126, 173.15393105683836 -34.77883187399877)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>173.1446241001252</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-34.7821701915126</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>173.1539310568384</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-34.77883187399877</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>173.1492775784818</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-34.78050103275568</v>
       </c>
     </row>
@@ -21737,27 +21756,28 @@
       <c r="P16" t="n">
         <v>386.8585382312968</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (173.14503811652358 -34.78294849660173, 173.15420182860547 -34.779351242044484)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>173.1450381165236</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-34.78294849660173</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>173.1542018286055</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-34.77935124204448</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>173.1496199725645</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-34.78114986932311</v>
       </c>
     </row>
@@ -21814,27 +21834,28 @@
       <c r="P17" t="n">
         <v>391.4027395072602</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (173.14559791923753 -34.78383312164819, 173.1543843955113 -34.77964558545604)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>173.1455979192375</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-34.78383312164819</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>173.1543843955113</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-34.77964558545604</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>173.1499911573744</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-34.78173935355211</v>
       </c>
     </row>
@@ -21891,27 +21912,28 @@
       <c r="P18" t="n">
         <v>386.481977379296</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (173.1461762523278 -34.78458212157721, 173.15472233954134 -34.78006958107654)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>173.1461762523278</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-34.78458212157721</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>173.1547223395413</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-34.78006958107654</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>173.1504492959345</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-34.78232585132687</v>
       </c>
     </row>
@@ -21968,27 +21990,28 @@
       <c r="P19" t="n">
         <v>388.322470758751</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (173.1466602909697 -34.78520365390096, 173.15520640234163 -34.780691103672396)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>173.1466602909697</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-34.78520365390096</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>173.1552064023416</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-34.7806911036724</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>173.1509333466557</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-34.78294737878667</v>
       </c>
     </row>
@@ -22045,27 +22068,28 @@
       <c r="P20" t="n">
         <v>389.7401152866674</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (173.14714432961156 -34.78582518154183, 173.15569046514173 -34.781312621584874)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>173.1471443296116</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-34.78582518154183</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>173.1556904651417</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-34.78131262158487</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>173.1514173973766</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-34.78356890156336</v>
       </c>
     </row>
@@ -22122,27 +22146,28 @@
       <c r="P21" t="n">
         <v>393.7033602185007</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (173.1477305785996 -34.786571624493604, 173.1560161500165 -34.78174054697026)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>173.1477305785996</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-34.7865716244936</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>173.1560161500165</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-34.78174054697026</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>173.1518733643081</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-34.78415608573194</v>
       </c>
     </row>
@@ -22199,27 +22224,28 @@
       <c r="P22" t="n">
         <v>384.3725466431422</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (173.14843220920034 -34.7873175976775, 173.15633281401313 -34.78206712922389)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>173.1484322092003</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-34.7873175976775</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>173.1563328140131</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-34.78206712922389</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>173.1523825116067</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-34.7846923634507</v>
       </c>
     </row>
@@ -22276,27 +22302,28 @@
       <c r="P23" t="n">
         <v>381.5675407098443</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
         <is>
           <t>LINESTRING (173.14902978081093 -34.78790712562549, 173.15687306626825 -34.7825986472299)</t>
         </is>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>173.1490297808109</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>-34.78790712562549</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>173.1568730662682</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>-34.7825986472299</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>173.1529514235396</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>-34.78525288642769</v>
       </c>
     </row>
@@ -22353,27 +22380,28 @@
       <c r="P24" t="n">
         <v>379.2587894554895</v>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
         <is>
           <t>LINESTRING (173.14955453090658 -34.788441227460716, 173.15749795689706 -34.78323473413114)</t>
         </is>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>173.1495545309066</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>-34.78844122746072</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>173.1574979568971</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>-34.78323473413114</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>173.1535262439018</v>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>-34.78583798079593</v>
       </c>
     </row>
@@ -22430,27 +22458,28 @@
       <c r="P25" t="n">
         <v>380.5971207066907</v>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
         <is>
           <t>LINESTRING (173.15008849954467 -34.789002519188216, 173.15808084897378 -34.783847049819926)</t>
         </is>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>173.1500884995447</v>
       </c>
-      <c r="S25" t="n">
+      <c r="T25" t="n">
         <v>-34.78900251918822</v>
       </c>
-      <c r="T25" t="n">
+      <c r="U25" t="n">
         <v>173.1580808489738</v>
       </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
         <v>-34.78384704981993</v>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>173.1540846742592</v>
       </c>
-      <c r="W25" t="n">
+      <c r="X25" t="n">
         <v>-34.78642478450407</v>
       </c>
     </row>
@@ -22507,27 +22536,28 @@
       <c r="P26" t="n">
         <v>384.084530890657</v>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
         <is>
           <t>LINESTRING (173.1506416528305 -34.789583823053384, 173.1586340160002 -34.784428343321665)</t>
         </is>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>173.1506416528305</v>
       </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>-34.78958382305338</v>
       </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
         <v>173.1586340160002</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
         <v>-34.78442834332166</v>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>173.1546378344154</v>
       </c>
-      <c r="W26" t="n">
+      <c r="X26" t="n">
         <v>-34.78700608318752</v>
       </c>
     </row>

--- a/data/nzd0018/nzd0018.xlsx
+++ b/data/nzd0018/nzd0018.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA219"/>
+  <dimension ref="A1:AA223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18229,6 +18229,312 @@
         </is>
       </c>
     </row>
+    <row r="220">
+      <c r="A220" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>387.9245454545455</v>
+      </c>
+      <c r="C220" t="n">
+        <v>382.6045454545454</v>
+      </c>
+      <c r="D220" t="n">
+        <v>384.7166666666667</v>
+      </c>
+      <c r="E220" t="n">
+        <v>379.9166666666667</v>
+      </c>
+      <c r="F220" t="n">
+        <v>387.53</v>
+      </c>
+      <c r="G220" t="n">
+        <v>382.37</v>
+      </c>
+      <c r="H220" t="n">
+        <v>384.08</v>
+      </c>
+      <c r="I220" t="n">
+        <v>389.63</v>
+      </c>
+      <c r="J220" t="n">
+        <v>384.5866666666667</v>
+      </c>
+      <c r="K220" t="n">
+        <v>381.26</v>
+      </c>
+      <c r="L220" t="n">
+        <v>390.6245454545455</v>
+      </c>
+      <c r="M220" t="n">
+        <v>404.2345454545454</v>
+      </c>
+      <c r="N220" t="n">
+        <v>391.0100000000001</v>
+      </c>
+      <c r="O220" t="n">
+        <v>394.8966666666667</v>
+      </c>
+      <c r="P220" t="n">
+        <v>399.59</v>
+      </c>
+      <c r="Q220" t="n">
+        <v>397.9500000000001</v>
+      </c>
+      <c r="R220" t="n">
+        <v>398.5345454545454</v>
+      </c>
+      <c r="S220" t="n">
+        <v>396.7000000000001</v>
+      </c>
+      <c r="T220" t="n">
+        <v>399.93</v>
+      </c>
+      <c r="U220" t="n">
+        <v>405.54</v>
+      </c>
+      <c r="V220" t="n">
+        <v>399.32</v>
+      </c>
+      <c r="W220" t="n">
+        <v>404.3155555555555</v>
+      </c>
+      <c r="X220" t="n">
+        <v>402.5255555555556</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>409.0355555555556</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>420.8</v>
+      </c>
+      <c r="AA220" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>390.0136363636364</v>
+      </c>
+      <c r="C221" t="n">
+        <v>385.6236363636364</v>
+      </c>
+      <c r="D221" t="n">
+        <v>384.0766666666667</v>
+      </c>
+      <c r="E221" t="n">
+        <v>386.4066666666667</v>
+      </c>
+      <c r="F221" t="n">
+        <v>384.87</v>
+      </c>
+      <c r="G221" t="n">
+        <v>382.73</v>
+      </c>
+      <c r="H221" t="n">
+        <v>390.15</v>
+      </c>
+      <c r="I221" t="n">
+        <v>385.57</v>
+      </c>
+      <c r="J221" t="n">
+        <v>390.3566666666667</v>
+      </c>
+      <c r="K221" t="n">
+        <v>384</v>
+      </c>
+      <c r="L221" t="n">
+        <v>400.3536363636364</v>
+      </c>
+      <c r="M221" t="n">
+        <v>408.9436363636364</v>
+      </c>
+      <c r="N221" t="n">
+        <v>409.61</v>
+      </c>
+      <c r="O221" t="n">
+        <v>405.1266666666667</v>
+      </c>
+      <c r="P221" t="n">
+        <v>405.16</v>
+      </c>
+      <c r="Q221" t="n">
+        <v>403.47</v>
+      </c>
+      <c r="R221" t="n">
+        <v>406.8836363636364</v>
+      </c>
+      <c r="S221" t="n">
+        <v>400.1</v>
+      </c>
+      <c r="T221" t="n">
+        <v>403.31</v>
+      </c>
+      <c r="U221" t="n">
+        <v>407.35</v>
+      </c>
+      <c r="V221" t="n">
+        <v>404.09</v>
+      </c>
+      <c r="W221" t="n">
+        <v>408.3422222222222</v>
+      </c>
+      <c r="X221" t="n">
+        <v>404.9022222222222</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>411.1422222222222</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>415.53</v>
+      </c>
+      <c r="AA221" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:17:25+00:00</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr"/>
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="inlineStr"/>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="inlineStr"/>
+      <c r="G222" t="inlineStr"/>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="inlineStr"/>
+      <c r="O222" t="inlineStr"/>
+      <c r="P222" t="inlineStr"/>
+      <c r="Q222" t="inlineStr"/>
+      <c r="R222" t="inlineStr"/>
+      <c r="S222" t="inlineStr"/>
+      <c r="T222" t="inlineStr"/>
+      <c r="U222" t="inlineStr"/>
+      <c r="V222" t="n">
+        <v>394.92</v>
+      </c>
+      <c r="W222" t="n">
+        <v>403.79</v>
+      </c>
+      <c r="X222" t="n">
+        <v>417.27</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>363</v>
+      </c>
+      <c r="Z222" t="inlineStr"/>
+      <c r="AA222" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>370.2272727272728</v>
+      </c>
+      <c r="C223" t="n">
+        <v>363.3272727272728</v>
+      </c>
+      <c r="D223" t="n">
+        <v>353.17</v>
+      </c>
+      <c r="E223" t="n">
+        <v>349.38</v>
+      </c>
+      <c r="F223" t="n">
+        <v>344.29</v>
+      </c>
+      <c r="G223" t="n">
+        <v>337.17</v>
+      </c>
+      <c r="H223" t="n">
+        <v>330.78</v>
+      </c>
+      <c r="I223" t="n">
+        <v>332.05</v>
+      </c>
+      <c r="J223" t="n">
+        <v>350</v>
+      </c>
+      <c r="K223" t="n">
+        <v>342.25</v>
+      </c>
+      <c r="L223" t="n">
+        <v>347.5972727272728</v>
+      </c>
+      <c r="M223" t="n">
+        <v>370.3172727272727</v>
+      </c>
+      <c r="N223" t="n">
+        <v>372.88</v>
+      </c>
+      <c r="O223" t="n">
+        <v>373.44</v>
+      </c>
+      <c r="P223" t="n">
+        <v>373.6</v>
+      </c>
+      <c r="Q223" t="n">
+        <v>372.81</v>
+      </c>
+      <c r="R223" t="n">
+        <v>373.5272727272728</v>
+      </c>
+      <c r="S223" t="n">
+        <v>372.29</v>
+      </c>
+      <c r="T223" t="n">
+        <v>374.96</v>
+      </c>
+      <c r="U223" t="n">
+        <v>374.68</v>
+      </c>
+      <c r="V223" t="n">
+        <v>375.48</v>
+      </c>
+      <c r="W223" t="n">
+        <v>377.01</v>
+      </c>
+      <c r="X223" t="n">
+        <v>385.38</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>380.16</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>373.62</v>
+      </c>
+      <c r="AA223" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18240,7 +18546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B222"/>
+  <dimension ref="A1:B226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20468,6 +20774,46 @@
       </c>
       <c r="B222" t="n">
         <v>1.03</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>-0.18</v>
       </c>
     </row>
   </sheetData>
@@ -20641,28 +20987,28 @@
         <v>0.0634</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1911326311515426</v>
+        <v>0.1831932219396709</v>
       </c>
       <c r="J2" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K2" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01420956043117505</v>
+        <v>0.01339944948268879</v>
       </c>
       <c r="M2" t="n">
-        <v>9.509032922764012</v>
+        <v>9.483305959483586</v>
       </c>
       <c r="N2" t="n">
-        <v>141.0015031003383</v>
+        <v>140.1547855276694</v>
       </c>
       <c r="O2" t="n">
-        <v>11.87440537881111</v>
+        <v>11.83869864164425</v>
       </c>
       <c r="P2" t="n">
-        <v>380.4219121589581</v>
+        <v>380.49706837048</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20719,28 +21065,28 @@
         <v>0.0633</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2030294425303792</v>
+        <v>0.1963924997082694</v>
       </c>
       <c r="J3" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K3" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01384135840696366</v>
+        <v>0.01328803373459297</v>
       </c>
       <c r="M3" t="n">
-        <v>10.06984829645206</v>
+        <v>10.05052435331036</v>
       </c>
       <c r="N3" t="n">
-        <v>162.6967242495672</v>
+        <v>161.7851447792275</v>
       </c>
       <c r="O3" t="n">
-        <v>12.75526260998053</v>
+        <v>12.71947895077576</v>
       </c>
       <c r="P3" t="n">
-        <v>374.1472231299323</v>
+        <v>374.2102227449845</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20797,28 +21143,28 @@
         <v>0.06710000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0344967565444813</v>
+        <v>0.03901120461642816</v>
       </c>
       <c r="J4" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K4" t="n">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002927386786620856</v>
+        <v>0.0003818623826610246</v>
       </c>
       <c r="M4" t="n">
-        <v>11.9045233171292</v>
+        <v>11.93843013254845</v>
       </c>
       <c r="N4" t="n">
-        <v>222.0189558728369</v>
+        <v>221.9767639318726</v>
       </c>
       <c r="O4" t="n">
-        <v>14.90030052961473</v>
+        <v>14.89888465395556</v>
       </c>
       <c r="P4" t="n">
-        <v>371.5232843200656</v>
+        <v>371.4818212149237</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20875,28 +21221,28 @@
         <v>0.076</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.0230887289057523</v>
+        <v>-0.008226103439666213</v>
       </c>
       <c r="J5" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K5" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L5" t="n">
-        <v>9.727891408461975e-05</v>
+        <v>1.260191245011644e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>13.86543676785669</v>
+        <v>13.90819396107</v>
       </c>
       <c r="N5" t="n">
-        <v>293.2232902250508</v>
+        <v>293.0761868784265</v>
       </c>
       <c r="O5" t="n">
-        <v>17.12376390356544</v>
+        <v>17.11946806645658</v>
       </c>
       <c r="P5" t="n">
-        <v>367.5789259469091</v>
+        <v>367.436841971067</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20953,28 +21299,28 @@
         <v>0.0489</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.09884896134218057</v>
+        <v>-0.08966731882396653</v>
       </c>
       <c r="J6" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K6" t="n">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00117992249250809</v>
+        <v>0.0009925616635257928</v>
       </c>
       <c r="M6" t="n">
-        <v>17.04149353986464</v>
+        <v>17.08357544173314</v>
       </c>
       <c r="N6" t="n">
-        <v>439.4558297071399</v>
+        <v>438.8199791341391</v>
       </c>
       <c r="O6" t="n">
-        <v>20.96320179999086</v>
+        <v>20.94803043567913</v>
       </c>
       <c r="P6" t="n">
-        <v>371.7999437764006</v>
+        <v>371.7124660503399</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -21031,28 +21377,28 @@
         <v>0.0599</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2795691989083295</v>
+        <v>-0.2536568439784153</v>
       </c>
       <c r="J7" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K7" t="n">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L7" t="n">
-        <v>0.009789958046812264</v>
+        <v>0.008204032979422071</v>
       </c>
       <c r="M7" t="n">
-        <v>17.16726791096614</v>
+        <v>17.25957452502429</v>
       </c>
       <c r="N7" t="n">
-        <v>428.409016968474</v>
+        <v>429.9137698255884</v>
       </c>
       <c r="O7" t="n">
-        <v>20.69804379569417</v>
+        <v>20.73436205494609</v>
       </c>
       <c r="P7" t="n">
-        <v>366.0230506275905</v>
+        <v>365.7771988604565</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -21109,28 +21455,28 @@
         <v>0.056</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07716958178654758</v>
+        <v>0.102346256988643</v>
       </c>
       <c r="J8" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K8" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0005955660017563646</v>
+        <v>0.001061639783873969</v>
       </c>
       <c r="M8" t="n">
-        <v>18.99190759763307</v>
+        <v>19.13502169202993</v>
       </c>
       <c r="N8" t="n">
-        <v>531.3066310201402</v>
+        <v>535.1440159133209</v>
       </c>
       <c r="O8" t="n">
-        <v>23.05008960980717</v>
+        <v>23.13317997840593</v>
       </c>
       <c r="P8" t="n">
-        <v>358.4848296560149</v>
+        <v>358.2435305765414</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -21187,28 +21533,28 @@
         <v>0.0611</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.203091943094364</v>
+        <v>-0.177039110471412</v>
       </c>
       <c r="J9" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K9" t="n">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005182630255287202</v>
+        <v>0.003970788088096699</v>
       </c>
       <c r="M9" t="n">
-        <v>16.65746980045823</v>
+        <v>16.83596067816853</v>
       </c>
       <c r="N9" t="n">
-        <v>424.2670851086925</v>
+        <v>429.5031930111789</v>
       </c>
       <c r="O9" t="n">
-        <v>20.59774466073149</v>
+        <v>20.72445881105654</v>
       </c>
       <c r="P9" t="n">
-        <v>365.8287980501516</v>
+        <v>365.577431806123</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -21265,28 +21611,28 @@
         <v>0.0682</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05597213458195205</v>
+        <v>0.07906021033698921</v>
       </c>
       <c r="J10" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K10" t="n">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0004863387342916026</v>
+        <v>0.0009871252249383788</v>
       </c>
       <c r="M10" t="n">
-        <v>15.39830950269948</v>
+        <v>15.46711638718886</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8610318861906</v>
+        <v>345.2683496477185</v>
       </c>
       <c r="O10" t="n">
-        <v>18.57043434834497</v>
+        <v>18.58139794654101</v>
       </c>
       <c r="P10" t="n">
-        <v>366.1037018061256</v>
+        <v>365.8790413418215</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -21343,28 +21689,28 @@
         <v>0.0471</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07024307253053132</v>
+        <v>0.07855630097783876</v>
       </c>
       <c r="J11" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K11" t="n">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0006132068672489721</v>
+        <v>0.0007824693814048045</v>
       </c>
       <c r="M11" t="n">
-        <v>16.46535327142967</v>
+        <v>16.50336063653255</v>
       </c>
       <c r="N11" t="n">
-        <v>426.1409751192768</v>
+        <v>425.2451465414522</v>
       </c>
       <c r="O11" t="n">
-        <v>20.64318229148008</v>
+        <v>20.62147294791166</v>
       </c>
       <c r="P11" t="n">
-        <v>364.6327177081503</v>
+        <v>364.5516061910403</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -21421,28 +21767,28 @@
         <v>0.06660000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2604872642956361</v>
+        <v>-0.2279249435379324</v>
       </c>
       <c r="J12" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K12" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L12" t="n">
-        <v>0.008546729866867886</v>
+        <v>0.006628566314217821</v>
       </c>
       <c r="M12" t="n">
-        <v>16.89100199898919</v>
+        <v>17.02344601824881</v>
       </c>
       <c r="N12" t="n">
-        <v>419.9032010356505</v>
+        <v>423.2192643951215</v>
       </c>
       <c r="O12" t="n">
-        <v>20.49153974291953</v>
+        <v>20.5722936104636</v>
       </c>
       <c r="P12" t="n">
-        <v>375.5795723922121</v>
+        <v>375.2624669714522</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -21499,28 +21845,28 @@
         <v>0.0639</v>
       </c>
       <c r="I13" t="n">
-        <v>0.03358249255695225</v>
+        <v>0.06367958819479472</v>
       </c>
       <c r="J13" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K13" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0001923607894588342</v>
+        <v>0.0007025584460643719</v>
       </c>
       <c r="M13" t="n">
-        <v>14.87067057237955</v>
+        <v>14.95910839075487</v>
       </c>
       <c r="N13" t="n">
-        <v>322.1485611089109</v>
+        <v>323.2136434332982</v>
       </c>
       <c r="O13" t="n">
-        <v>17.94849746103865</v>
+        <v>17.97814349239927</v>
       </c>
       <c r="P13" t="n">
-        <v>383.5966051167836</v>
+        <v>383.313270666605</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -21577,28 +21923,28 @@
         <v>0.0561</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1475564260689973</v>
+        <v>0.1641622286684822</v>
       </c>
       <c r="J14" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K14" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L14" t="n">
-        <v>0.003608273093380965</v>
+        <v>0.004562408238834137</v>
       </c>
       <c r="M14" t="n">
-        <v>14.61339520012049</v>
+        <v>14.61758471547842</v>
       </c>
       <c r="N14" t="n">
-        <v>329.3527512673128</v>
+        <v>328.2598005598047</v>
       </c>
       <c r="O14" t="n">
-        <v>18.14807844559067</v>
+        <v>18.11794139961284</v>
       </c>
       <c r="P14" t="n">
-        <v>381.7092275984756</v>
+        <v>381.552550063625</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -21655,28 +22001,28 @@
         <v>0.0684</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2063213351372515</v>
+        <v>0.2188152378103038</v>
       </c>
       <c r="J15" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K15" t="n">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L15" t="n">
-        <v>0.00808981441786194</v>
+        <v>0.009305397769089452</v>
       </c>
       <c r="M15" t="n">
-        <v>13.68841399013678</v>
+        <v>13.69627159383501</v>
       </c>
       <c r="N15" t="n">
-        <v>284.6096600187753</v>
+        <v>283.219895795473</v>
       </c>
       <c r="O15" t="n">
-        <v>16.87037818244675</v>
+        <v>16.8291382962846</v>
       </c>
       <c r="P15" t="n">
-        <v>381.6037379645045</v>
+        <v>381.4851899109448</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -21733,28 +22079,28 @@
         <v>0.0551</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1033447637330079</v>
+        <v>0.1128536921741813</v>
       </c>
       <c r="J16" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K16" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L16" t="n">
-        <v>0.002058939102580926</v>
+        <v>0.002512020601825427</v>
       </c>
       <c r="M16" t="n">
-        <v>13.61886954918938</v>
+        <v>13.62151307272897</v>
       </c>
       <c r="N16" t="n">
-        <v>280.161210008935</v>
+        <v>278.9702848627722</v>
       </c>
       <c r="O16" t="n">
-        <v>16.73801690789369</v>
+        <v>16.70240356543849</v>
       </c>
       <c r="P16" t="n">
-        <v>386.8585382312968</v>
+        <v>386.7686114602184</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -21811,28 +22157,28 @@
         <v>0.0601</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.1146282756851416</v>
+        <v>-0.1059800182202855</v>
       </c>
       <c r="J17" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K17" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L17" t="n">
-        <v>0.002442364274157116</v>
+        <v>0.002142009589507388</v>
       </c>
       <c r="M17" t="n">
-        <v>13.69205598796255</v>
+        <v>13.69236733881425</v>
       </c>
       <c r="N17" t="n">
-        <v>286.4394925865696</v>
+        <v>284.9789148872425</v>
       </c>
       <c r="O17" t="n">
-        <v>16.92452340795952</v>
+        <v>16.8813185174394</v>
       </c>
       <c r="P17" t="n">
-        <v>391.4027395072602</v>
+        <v>391.3212632711165</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -21889,28 +22235,28 @@
         <v>0.06610000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>0.005880211732453701</v>
+        <v>0.0249457023593179</v>
       </c>
       <c r="J18" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K18" t="n">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L18" t="n">
-        <v>6.141192760766856e-06</v>
+        <v>0.0001130435262024498</v>
       </c>
       <c r="M18" t="n">
-        <v>14.05591384337144</v>
+        <v>14.08449456561378</v>
       </c>
       <c r="N18" t="n">
-        <v>301.2994101291412</v>
+        <v>300.3686918915363</v>
       </c>
       <c r="O18" t="n">
-        <v>17.35797828461429</v>
+        <v>17.33114802578111</v>
       </c>
       <c r="P18" t="n">
-        <v>386.481977379296</v>
+        <v>386.299292799858</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -21967,28 +22313,28 @@
         <v>0.0581</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.07150398100016989</v>
+        <v>-0.06196536051414546</v>
       </c>
       <c r="J19" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K19" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0009942507495028785</v>
+        <v>0.0007663743215846619</v>
       </c>
       <c r="M19" t="n">
-        <v>13.50564121353641</v>
+        <v>13.49612107276071</v>
       </c>
       <c r="N19" t="n">
-        <v>277.057816389291</v>
+        <v>275.3400465025532</v>
       </c>
       <c r="O19" t="n">
-        <v>16.64505381154687</v>
+        <v>16.5933735720785</v>
       </c>
       <c r="P19" t="n">
-        <v>388.322470758751</v>
+        <v>388.2320810288309</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -22045,28 +22391,28 @@
         <v>0.0475</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.1113616894838772</v>
+        <v>-0.09387119159177362</v>
       </c>
       <c r="J20" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K20" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L20" t="n">
-        <v>0.002116677413159351</v>
+        <v>0.00154374818307057</v>
       </c>
       <c r="M20" t="n">
-        <v>14.21940813850067</v>
+        <v>14.21677732014012</v>
       </c>
       <c r="N20" t="n">
-        <v>312.6063781404643</v>
+        <v>310.8187326333834</v>
       </c>
       <c r="O20" t="n">
-        <v>17.68067810182812</v>
+        <v>17.63005197477828</v>
       </c>
       <c r="P20" t="n">
-        <v>389.7401152866674</v>
+        <v>389.5731174599365</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -22123,28 +22469,28 @@
         <v>0.0455</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.1349058564008464</v>
+        <v>-0.1183128616191305</v>
       </c>
       <c r="J21" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K21" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L21" t="n">
-        <v>0.002947673784645</v>
+        <v>0.002321198850589012</v>
       </c>
       <c r="M21" t="n">
-        <v>14.38597238015383</v>
+        <v>14.41631360721435</v>
       </c>
       <c r="N21" t="n">
-        <v>330.1471841206723</v>
+        <v>329.0295112722513</v>
       </c>
       <c r="O21" t="n">
-        <v>18.16995278256585</v>
+        <v>18.13917063352818</v>
       </c>
       <c r="P21" t="n">
-        <v>393.7033602185007</v>
+        <v>393.5453608404903</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -22201,28 +22547,28 @@
         <v>0.045</v>
       </c>
       <c r="I22" t="n">
-        <v>0.04352398705695721</v>
+        <v>0.0745660959350154</v>
       </c>
       <c r="J22" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K22" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0002427764895875928</v>
+        <v>0.0007388014901023032</v>
       </c>
       <c r="M22" t="n">
-        <v>16.84688944101521</v>
+        <v>16.76228910250784</v>
       </c>
       <c r="N22" t="n">
-        <v>450.0417824232828</v>
+        <v>444.30660897096</v>
       </c>
       <c r="O22" t="n">
-        <v>21.21418823389862</v>
+        <v>21.07858175900267</v>
       </c>
       <c r="P22" t="n">
-        <v>384.3725466431422</v>
+        <v>384.0860060501555</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -22279,28 +22625,28 @@
         <v>0.048</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.1732860815608158</v>
+        <v>-0.08329288667209643</v>
       </c>
       <c r="J23" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K23" t="n">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L23" t="n">
-        <v>0.002923789319374759</v>
+        <v>0.0006952719612050018</v>
       </c>
       <c r="M23" t="n">
-        <v>19.33405951046647</v>
+        <v>19.31971908799783</v>
       </c>
       <c r="N23" t="n">
-        <v>575.0797229293588</v>
+        <v>575.0775800023407</v>
       </c>
       <c r="O23" t="n">
-        <v>23.98081989693761</v>
+        <v>23.98077521687614</v>
       </c>
       <c r="P23" t="n">
-        <v>381.5675407098443</v>
+        <v>380.7243158018375</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -22357,28 +22703,28 @@
         <v>0.0492</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3947188827541872</v>
+        <v>0.4487116263687491</v>
       </c>
       <c r="J24" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K24" t="n">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01965983388768877</v>
+        <v>0.026056364113208</v>
       </c>
       <c r="M24" t="n">
-        <v>16.71965945110622</v>
+        <v>16.69061564368279</v>
       </c>
       <c r="N24" t="n">
-        <v>417.5522962254238</v>
+        <v>414.8984943169646</v>
       </c>
       <c r="O24" t="n">
-        <v>20.43409641323599</v>
+        <v>20.36905727609809</v>
       </c>
       <c r="P24" t="n">
-        <v>379.2587894554895</v>
+        <v>378.734690428535</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -22435,28 +22781,28 @@
         <v>0.051</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5515161647743629</v>
+        <v>0.5351680556233767</v>
       </c>
       <c r="J25" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K25" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L25" t="n">
-        <v>0.04113565317188106</v>
+        <v>0.03970398839722322</v>
       </c>
       <c r="M25" t="n">
-        <v>15.6029050148451</v>
+        <v>15.67873480397614</v>
       </c>
       <c r="N25" t="n">
-        <v>382.0292479976588</v>
+        <v>382.8899664678997</v>
       </c>
       <c r="O25" t="n">
-        <v>19.54556850024217</v>
+        <v>19.56757436341816</v>
       </c>
       <c r="P25" t="n">
-        <v>380.5971207066907</v>
+        <v>380.7572095213284</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -22513,28 +22859,28 @@
         <v>0.056</v>
       </c>
       <c r="I26" t="n">
-        <v>0.301757278541494</v>
+        <v>0.3374177340919853</v>
       </c>
       <c r="J26" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K26" t="n">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01514713389175104</v>
+        <v>0.01900854198232993</v>
       </c>
       <c r="M26" t="n">
-        <v>13.96519127862673</v>
+        <v>14.14064357268538</v>
       </c>
       <c r="N26" t="n">
-        <v>322.056746465124</v>
+        <v>326.0041506471653</v>
       </c>
       <c r="O26" t="n">
-        <v>17.94593955370194</v>
+        <v>18.05558502644446</v>
       </c>
       <c r="P26" t="n">
-        <v>384.084530890657</v>
+        <v>383.7450152380765</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -22572,7 +22918,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA219"/>
+  <dimension ref="A1:AA223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49963,6 +50309,470 @@
         </is>
       </c>
     </row>
+    <row r="220">
+      <c r="A220" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>-34.772001452872175,173.1493442346652</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>-34.772536193558274,173.14873643958055</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>-34.77313510267032,173.14827451882653</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>-34.77377600039265,173.14786476431954</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>-34.774449967800074,173.1475821798072</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>-34.77514121685134,173.14739532073017</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>-34.77586042908551,173.1472914857625</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>-34.77657791111225,173.1473531813675</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>-34.77730089672998,173.14734004222214</t>
+        </is>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>-34.77802096479586,173.1474512997379</t>
+        </is>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>-34.77873030213863,173.1477138221407</t>
+        </is>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>-34.77940060878276,173.14801307631188</t>
+        </is>
+      </c>
+      <c r="N220" t="inlineStr">
+        <is>
+          <t>-34.78009210082139,173.1481877147083</t>
+        </is>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>-34.780750512859036,173.14858238261925</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>-34.78140044047649,173.14898197620894</t>
+        </is>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>-34.78203822348196,173.14936432712102</t>
+        </is>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>-34.78264493526293,173.1498452515441</t>
+        </is>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>-34.78327537589483,173.1503124213238</t>
+        </is>
+      </c>
+      <c r="T220" t="inlineStr">
+        <is>
+          <t>-34.78388119338044,173.1508262156915</t>
+        </is>
+      </c>
+      <c r="U220" t="inlineStr">
+        <is>
+          <t>-34.78446106666848,173.15135054297363</t>
+        </is>
+      </c>
+      <c r="V220" t="inlineStr">
+        <is>
+          <t>-34.785058765363324,173.15183138868446</t>
+        </is>
+      </c>
+      <c r="W220" t="inlineStr">
+        <is>
+          <t>-34.78559472575203,173.15244657115508</t>
+        </is>
+      </c>
+      <c r="X220" t="inlineStr">
+        <is>
+          <t>-34.78618334661497,173.15299954743438</t>
+        </is>
+      </c>
+      <c r="Y220" t="inlineStr">
+        <is>
+          <t>-34.78673062965753,173.15361075615496</t>
+        </is>
+      </c>
+      <c r="Z220" t="inlineStr">
+        <is>
+          <t>-34.787246578761426,173.15426522687684</t>
+        </is>
+      </c>
+      <c r="AA220" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>-34.772013345682886,173.14936194082551</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>-34.77255236025206,173.14876298693494</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>-34.77313231057394,173.14826839749924</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>-34.77380000573195,173.14792945054458</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>-34.77444314579587,173.14755430972193</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>-34.77514168772341,173.14739921351688</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>-34.77586414278805,173.14735767171476</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>-34.77657883925766,173.14730882365387</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>-34.77729527862993,173.14740273476517</t>
+        </is>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>-34.77801666772644,173.14748078954557</t>
+        </is>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>-34.77871441535238,173.1478183968748</t>
+        </is>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>-34.77938902005234,173.14806259042322</t>
+        </is>
+      </c>
+      <c r="N221" t="inlineStr">
+        <is>
+          <t>-34.780028235453635,173.14837569052247</t>
+        </is>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>-34.780713733647715,173.14868492214322</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>-34.78137886077359,173.14903694976013</t>
+        </is>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>-34.78201332546891,173.14941657015189</t>
+        </is>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>-34.78260435103529,173.14992211332728</t>
+        </is>
+      </c>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>-34.78325884871211,173.1503437219322</t>
+        </is>
+      </c>
+      <c r="T221" t="inlineStr">
+        <is>
+          <t>-34.78386476332995,173.15085733233715</t>
+        </is>
+      </c>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>-34.7844516466168,173.15136669913008</t>
+        </is>
+      </c>
+      <c r="V221" t="inlineStr">
+        <is>
+          <t>-34.785031782341946,173.15187199180608</t>
+        </is>
+      </c>
+      <c r="W221" t="inlineStr">
+        <is>
+          <t>-34.78557169557385,173.15248059875444</t>
+        </is>
+      </c>
+      <c r="X221" t="inlineStr">
+        <is>
+          <t>-34.786170014922035,173.15301988758725</t>
+        </is>
+      </c>
+      <c r="Y221" t="inlineStr">
+        <is>
+          <t>-34.78671892841994,173.15362889642617</t>
+        </is>
+      </c>
+      <c r="Z221" t="inlineStr">
+        <is>
+          <t>-34.78727585052719,173.1542198473549</t>
+        </is>
+      </c>
+      <c r="AA221" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18 22:17:25+00:00</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr"/>
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="inlineStr"/>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="inlineStr"/>
+      <c r="G222" t="inlineStr"/>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="inlineStr"/>
+      <c r="O222" t="inlineStr"/>
+      <c r="P222" t="inlineStr"/>
+      <c r="Q222" t="inlineStr"/>
+      <c r="R222" t="inlineStr"/>
+      <c r="S222" t="inlineStr"/>
+      <c r="T222" t="inlineStr"/>
+      <c r="U222" t="inlineStr"/>
+      <c r="V222" t="inlineStr">
+        <is>
+          <t>-34.78508365535003,173.15179393504775</t>
+        </is>
+      </c>
+      <c r="W222" t="inlineStr">
+        <is>
+          <t>-34.78559773162172,173.15244212991348</t>
+        </is>
+      </c>
+      <c r="X222" t="inlineStr">
+        <is>
+          <t>-34.78610063895577,173.15312573425183</t>
+        </is>
+      </c>
+      <c r="Y222" t="inlineStr">
+        <is>
+          <t>-34.78698632817634,173.15321434785105</t>
+        </is>
+      </c>
+      <c r="Z222" t="inlineStr"/>
+      <c r="AA222" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>-34.771900705445425,173.14919424103803</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>-34.772432967060226,173.14856693164938</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>-34.77299747521707,173.14797278889267</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>-34.77366305030713,173.1475604040056</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>-34.774339070968566,173.14712913432584</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>-34.77508209525675,173.1469065600786</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>-34.77582781792761,173.1467103144706</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>-34.776591072806674,173.14672408837495</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>-34.777334572198015,173.1469642489586</t>
+        </is>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>-34.77808214237107,173.14703144633873</t>
+        </is>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>-34.7788005609756,173.1472513359369</t>
+        </is>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>-34.77948407613102,173.14765645003604</t>
+        </is>
+      </c>
+      <c r="N223" t="inlineStr">
+        <is>
+          <t>-34.780154352107544,173.14800448854095</t>
+        </is>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>-34.780827654247844,173.1483673132724</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>-34.78150113251415,173.14872546548926</t>
+        </is>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>-34.78215161740967,173.14912639378923</t>
+        </is>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>-34.7827664932184,173.14961503398365</t>
+        </is>
+      </c>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>-34.78339403110828,173.15008770100053</t>
+        </is>
+      </c>
+      <c r="T223" t="inlineStr">
+        <is>
+          <t>-34.78400257134668,173.15059633878744</t>
+        </is>
+      </c>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>-34.784621675616556,173.15107508440312</t>
+        </is>
+      </c>
+      <c r="V223" t="inlineStr">
+        <is>
+          <t>-34.78519362369827,173.15162845780156</t>
+        </is>
+      </c>
+      <c r="W223" t="inlineStr">
+        <is>
+          <t>-34.78575089730717,173.15221582334496</t>
+        </is>
+      </c>
+      <c r="X223" t="inlineStr">
+        <is>
+          <t>-34.78627952292986,173.1528528109621</t>
+        </is>
+      </c>
+      <c r="Y223" t="inlineStr">
+        <is>
+          <t>-34.78689101533479,173.1533621114566</t>
+        </is>
+      </c>
+      <c r="Z223" t="inlineStr">
+        <is>
+          <t>-34.7875086354454,173.15385896276575</t>
+        </is>
+      </c>
+      <c r="AA223" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0018/nzd0018.xlsx
+++ b/data/nzd0018/nzd0018.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA223"/>
+  <dimension ref="A1:AA225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18535,6 +18535,180 @@
         </is>
       </c>
     </row>
+    <row r="224">
+      <c r="A224" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>366.8181818181818</v>
+      </c>
+      <c r="C224" t="n">
+        <v>357.5981818181818</v>
+      </c>
+      <c r="D224" t="n">
+        <v>348.01</v>
+      </c>
+      <c r="E224" t="n">
+        <v>343.22</v>
+      </c>
+      <c r="F224" t="n">
+        <v>338.7</v>
+      </c>
+      <c r="G224" t="n">
+        <v>337.26</v>
+      </c>
+      <c r="H224" t="n">
+        <v>326.05</v>
+      </c>
+      <c r="I224" t="n">
+        <v>332.67</v>
+      </c>
+      <c r="J224" t="n">
+        <v>345.02</v>
+      </c>
+      <c r="K224" t="n">
+        <v>342.29</v>
+      </c>
+      <c r="L224" t="n">
+        <v>341.9981818181818</v>
+      </c>
+      <c r="M224" t="n">
+        <v>366.0881818181818</v>
+      </c>
+      <c r="N224" t="n">
+        <v>363.08</v>
+      </c>
+      <c r="O224" t="n">
+        <v>371.26</v>
+      </c>
+      <c r="P224" t="n">
+        <v>372.09</v>
+      </c>
+      <c r="Q224" t="n">
+        <v>372.88</v>
+      </c>
+      <c r="R224" t="n">
+        <v>366.4181818181818</v>
+      </c>
+      <c r="S224" t="n">
+        <v>364.59</v>
+      </c>
+      <c r="T224" t="n">
+        <v>368.53</v>
+      </c>
+      <c r="U224" t="n">
+        <v>371.74</v>
+      </c>
+      <c r="V224" t="n">
+        <v>364.85</v>
+      </c>
+      <c r="W224" t="n">
+        <v>342.7866666666667</v>
+      </c>
+      <c r="X224" t="n">
+        <v>362.5966666666667</v>
+      </c>
+      <c r="Y224" t="n">
+        <v>368.0866666666667</v>
+      </c>
+      <c r="Z224" t="n">
+        <v>368.36</v>
+      </c>
+      <c r="AA224" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>374.0618181818182</v>
+      </c>
+      <c r="C225" t="n">
+        <v>365.9318181818182</v>
+      </c>
+      <c r="D225" t="n">
+        <v>359.83</v>
+      </c>
+      <c r="E225" t="n">
+        <v>353.82</v>
+      </c>
+      <c r="F225" t="n">
+        <v>355</v>
+      </c>
+      <c r="G225" t="n">
+        <v>344.37</v>
+      </c>
+      <c r="H225" t="n">
+        <v>344.51</v>
+      </c>
+      <c r="I225" t="n">
+        <v>347.05</v>
+      </c>
+      <c r="J225" t="n">
+        <v>354.02</v>
+      </c>
+      <c r="K225" t="n">
+        <v>353.99</v>
+      </c>
+      <c r="L225" t="n">
+        <v>360.2518181818182</v>
+      </c>
+      <c r="M225" t="n">
+        <v>380.1618181818182</v>
+      </c>
+      <c r="N225" t="n">
+        <v>378.95</v>
+      </c>
+      <c r="O225" t="n">
+        <v>380.9</v>
+      </c>
+      <c r="P225" t="n">
+        <v>387.31</v>
+      </c>
+      <c r="Q225" t="n">
+        <v>386.2</v>
+      </c>
+      <c r="R225" t="n">
+        <v>381.7918181818182</v>
+      </c>
+      <c r="S225" t="n">
+        <v>385.24</v>
+      </c>
+      <c r="T225" t="n">
+        <v>385.93</v>
+      </c>
+      <c r="U225" t="n">
+        <v>392.21</v>
+      </c>
+      <c r="V225" t="n">
+        <v>399.25</v>
+      </c>
+      <c r="W225" t="n">
+        <v>381.0533333333333</v>
+      </c>
+      <c r="X225" t="n">
+        <v>385.9933333333333</v>
+      </c>
+      <c r="Y225" t="n">
+        <v>392.0733333333333</v>
+      </c>
+      <c r="Z225" t="n">
+        <v>386.13</v>
+      </c>
+      <c r="AA225" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18546,7 +18720,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B226"/>
+  <dimension ref="A1:B228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20814,6 +20988,26 @@
       </c>
       <c r="B226" t="n">
         <v>-0.18</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>-0.21</v>
       </c>
     </row>
   </sheetData>
@@ -20987,28 +21181,28 @@
         <v>0.0634</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1831932219396709</v>
+        <v>0.1542808444366458</v>
       </c>
       <c r="J2" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K2" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01339944948268879</v>
+        <v>0.009599990361853883</v>
       </c>
       <c r="M2" t="n">
-        <v>9.483305959483586</v>
+        <v>9.550724901765907</v>
       </c>
       <c r="N2" t="n">
-        <v>140.1547855276694</v>
+        <v>141.001428510244</v>
       </c>
       <c r="O2" t="n">
-        <v>11.83869864164425</v>
+        <v>11.87440223801788</v>
       </c>
       <c r="P2" t="n">
-        <v>380.49706837048</v>
+        <v>380.769644314667</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -21065,28 +21259,28 @@
         <v>0.0633</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1963924997082694</v>
+        <v>0.1622239623991468</v>
       </c>
       <c r="J3" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K3" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01328803373459297</v>
+        <v>0.009132749241467786</v>
       </c>
       <c r="M3" t="n">
-        <v>10.05052435331036</v>
+        <v>10.14144940824904</v>
       </c>
       <c r="N3" t="n">
-        <v>161.7851447792275</v>
+        <v>163.298678185003</v>
       </c>
       <c r="O3" t="n">
-        <v>12.71947895077576</v>
+        <v>12.7788371217808</v>
       </c>
       <c r="P3" t="n">
-        <v>374.2102227449845</v>
+        <v>374.5322938169228</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -21143,28 +21337,28 @@
         <v>0.06710000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03901120461642816</v>
+        <v>0.002535969383821462</v>
       </c>
       <c r="J4" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K4" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0003818623826610246</v>
+        <v>1.624017884505058e-06</v>
       </c>
       <c r="M4" t="n">
-        <v>11.93843013254845</v>
+        <v>12.0271594175452</v>
       </c>
       <c r="N4" t="n">
-        <v>221.9767639318726</v>
+        <v>223.428811263125</v>
       </c>
       <c r="O4" t="n">
-        <v>14.89888465395556</v>
+        <v>14.94753529057968</v>
       </c>
       <c r="P4" t="n">
-        <v>371.4818212149237</v>
+        <v>371.8286350353536</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21221,28 +21415,28 @@
         <v>0.076</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.008226103439666213</v>
+        <v>-0.04576690477460859</v>
       </c>
       <c r="J5" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K5" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L5" t="n">
-        <v>1.260191245011644e-05</v>
+        <v>0.0003938558552682991</v>
       </c>
       <c r="M5" t="n">
-        <v>13.90819396107</v>
+        <v>13.94951914205799</v>
       </c>
       <c r="N5" t="n">
-        <v>293.0761868784265</v>
+        <v>293.8161566944929</v>
       </c>
       <c r="O5" t="n">
-        <v>17.11946806645658</v>
+        <v>17.14106638148552</v>
       </c>
       <c r="P5" t="n">
-        <v>367.436841971067</v>
+        <v>367.8009529531233</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21299,28 +21493,28 @@
         <v>0.0489</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.08966731882396653</v>
+        <v>-0.1369874445983008</v>
       </c>
       <c r="J6" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K6" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0009925616635257928</v>
+        <v>0.002336891408269426</v>
       </c>
       <c r="M6" t="n">
-        <v>17.08357544173314</v>
+        <v>17.13539341937409</v>
       </c>
       <c r="N6" t="n">
-        <v>438.8199791341391</v>
+        <v>440.075282878448</v>
       </c>
       <c r="O6" t="n">
-        <v>20.94803043567913</v>
+        <v>20.97797137185691</v>
       </c>
       <c r="P6" t="n">
-        <v>371.7124660503399</v>
+        <v>372.1751074874273</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -21377,28 +21571,28 @@
         <v>0.0599</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2536568439784153</v>
+        <v>-0.2905306002187196</v>
       </c>
       <c r="J7" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K7" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L7" t="n">
-        <v>0.008204032979422071</v>
+        <v>0.01089126296176013</v>
       </c>
       <c r="M7" t="n">
-        <v>17.25957452502429</v>
+        <v>17.26139044262827</v>
       </c>
       <c r="N7" t="n">
-        <v>429.9137698255884</v>
+        <v>429.0197704086245</v>
       </c>
       <c r="O7" t="n">
-        <v>20.73436205494609</v>
+        <v>20.71279243387102</v>
       </c>
       <c r="P7" t="n">
-        <v>365.7771988604565</v>
+        <v>366.1315913119212</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -21455,28 +21649,28 @@
         <v>0.056</v>
       </c>
       <c r="I8" t="n">
-        <v>0.102346256988643</v>
+        <v>0.04807691107491525</v>
       </c>
       <c r="J8" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K8" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001061639783873969</v>
+        <v>0.0002367355882729738</v>
       </c>
       <c r="M8" t="n">
-        <v>19.13502169202993</v>
+        <v>19.18593969941984</v>
       </c>
       <c r="N8" t="n">
-        <v>535.1440159133209</v>
+        <v>537.0812589072236</v>
       </c>
       <c r="O8" t="n">
-        <v>23.13317997840593</v>
+        <v>23.17501367652722</v>
       </c>
       <c r="P8" t="n">
-        <v>358.2435305765414</v>
+        <v>358.7714750419535</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -21533,28 +21727,28 @@
         <v>0.0611</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.177039110471412</v>
+        <v>-0.2202973292011075</v>
       </c>
       <c r="J9" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K9" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003970788088096699</v>
+        <v>0.0062016716242137</v>
       </c>
       <c r="M9" t="n">
-        <v>16.83596067816853</v>
+        <v>16.8636640882181</v>
       </c>
       <c r="N9" t="n">
-        <v>429.5031930111789</v>
+        <v>430.0796138531364</v>
       </c>
       <c r="O9" t="n">
-        <v>20.72445881105654</v>
+        <v>20.7383609249414</v>
       </c>
       <c r="P9" t="n">
-        <v>365.577431806123</v>
+        <v>366.001105799034</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -21611,28 +21805,28 @@
         <v>0.0682</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07906021033698921</v>
+        <v>0.0413610732318507</v>
       </c>
       <c r="J10" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K10" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0009871252249383788</v>
+        <v>0.0002735975817010905</v>
       </c>
       <c r="M10" t="n">
-        <v>15.46711638718886</v>
+        <v>15.47697890421266</v>
       </c>
       <c r="N10" t="n">
-        <v>345.2683496477185</v>
+        <v>345.2927173473606</v>
       </c>
       <c r="O10" t="n">
-        <v>18.58139794654101</v>
+        <v>18.58205363643536</v>
       </c>
       <c r="P10" t="n">
-        <v>365.8790413418215</v>
+        <v>366.2504989254744</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -21689,28 +21883,28 @@
         <v>0.0471</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07855630097783876</v>
+        <v>0.04051131442797328</v>
       </c>
       <c r="J11" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K11" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0007824693814048045</v>
+        <v>0.0002109466218878087</v>
       </c>
       <c r="M11" t="n">
-        <v>16.50336063653255</v>
+        <v>16.52119614627642</v>
       </c>
       <c r="N11" t="n">
-        <v>425.2451465414522</v>
+        <v>424.5795266283895</v>
       </c>
       <c r="O11" t="n">
-        <v>20.62147294791166</v>
+        <v>20.60532762730041</v>
       </c>
       <c r="P11" t="n">
-        <v>364.5516061910403</v>
+        <v>364.9331203760436</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -21767,28 +21961,28 @@
         <v>0.06660000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2279249435379324</v>
+        <v>-0.2648770739296484</v>
       </c>
       <c r="J12" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K12" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L12" t="n">
-        <v>0.006628566314217821</v>
+        <v>0.009041568022097435</v>
       </c>
       <c r="M12" t="n">
-        <v>17.02344601824881</v>
+        <v>17.0205845237785</v>
       </c>
       <c r="N12" t="n">
-        <v>423.2192643951215</v>
+        <v>423.0456454849256</v>
       </c>
       <c r="O12" t="n">
-        <v>20.5722936104636</v>
+        <v>20.56807345098042</v>
       </c>
       <c r="P12" t="n">
-        <v>375.2624669714522</v>
+        <v>375.6264613237357</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -21845,28 +22039,28 @@
         <v>0.0639</v>
       </c>
       <c r="I13" t="n">
-        <v>0.06367958819479472</v>
+        <v>0.04035403933627957</v>
       </c>
       <c r="J13" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K13" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0007025584460643719</v>
+        <v>0.0002869938364368219</v>
       </c>
       <c r="M13" t="n">
-        <v>14.95910839075487</v>
+        <v>14.9096116865354</v>
       </c>
       <c r="N13" t="n">
-        <v>323.2136434332982</v>
+        <v>321.8238260423967</v>
       </c>
       <c r="O13" t="n">
-        <v>17.97814349239927</v>
+        <v>17.93944887788911</v>
       </c>
       <c r="P13" t="n">
-        <v>383.313270666605</v>
+        <v>383.5351320703361</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -21923,28 +22117,28 @@
         <v>0.0561</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1641622286684822</v>
+        <v>0.1356791785978977</v>
       </c>
       <c r="J14" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K14" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L14" t="n">
-        <v>0.004562408238834137</v>
+        <v>0.003163951966164147</v>
       </c>
       <c r="M14" t="n">
-        <v>14.61758471547842</v>
+        <v>14.59428162365984</v>
       </c>
       <c r="N14" t="n">
-        <v>328.2598005598047</v>
+        <v>327.728862468544</v>
       </c>
       <c r="O14" t="n">
-        <v>18.11794139961284</v>
+        <v>18.1032831958334</v>
       </c>
       <c r="P14" t="n">
-        <v>381.552550063625</v>
+        <v>381.8242742572283</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -22001,28 +22195,28 @@
         <v>0.0684</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2188152378103038</v>
+        <v>0.1973850059838976</v>
       </c>
       <c r="J15" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K15" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L15" t="n">
-        <v>0.009305397769089452</v>
+        <v>0.00771336648802845</v>
       </c>
       <c r="M15" t="n">
-        <v>13.69627159383501</v>
+        <v>13.64245367401037</v>
       </c>
       <c r="N15" t="n">
-        <v>283.219895795473</v>
+        <v>281.814288957661</v>
       </c>
       <c r="O15" t="n">
-        <v>16.8291382962846</v>
+        <v>16.78732524727096</v>
       </c>
       <c r="P15" t="n">
-        <v>381.4851899109448</v>
+        <v>381.6912907160068</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -22079,28 +22273,28 @@
         <v>0.0551</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1128536921741813</v>
+        <v>0.09354363124190383</v>
       </c>
       <c r="J16" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K16" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L16" t="n">
-        <v>0.002512020601825427</v>
+        <v>0.001755961549690932</v>
       </c>
       <c r="M16" t="n">
-        <v>13.62151307272897</v>
+        <v>13.58595763118138</v>
       </c>
       <c r="N16" t="n">
-        <v>278.9702848627722</v>
+        <v>277.7537345574377</v>
       </c>
       <c r="O16" t="n">
-        <v>16.70240356543849</v>
+        <v>16.66594535444773</v>
       </c>
       <c r="P16" t="n">
-        <v>386.7686114602184</v>
+        <v>386.9543572922182</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -22157,28 +22351,28 @@
         <v>0.0601</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.1059800182202855</v>
+        <v>-0.1237283604454766</v>
       </c>
       <c r="J17" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K17" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L17" t="n">
-        <v>0.002142009589507388</v>
+        <v>0.002971113660511726</v>
       </c>
       <c r="M17" t="n">
-        <v>13.69236733881425</v>
+        <v>13.63514306399879</v>
       </c>
       <c r="N17" t="n">
-        <v>284.9789148872425</v>
+        <v>283.4284023038186</v>
       </c>
       <c r="O17" t="n">
-        <v>16.8813185174394</v>
+        <v>16.83533196298245</v>
       </c>
       <c r="P17" t="n">
-        <v>391.3212632711165</v>
+        <v>391.4913779881094</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -22235,28 +22429,28 @@
         <v>0.06610000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0249457023593179</v>
+        <v>-0.0004772360783156371</v>
       </c>
       <c r="J18" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K18" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0001130435262024498</v>
+        <v>4.200888692462712e-08</v>
       </c>
       <c r="M18" t="n">
-        <v>14.08449456561378</v>
+        <v>14.0511468733219</v>
       </c>
       <c r="N18" t="n">
-        <v>300.3686918915363</v>
+        <v>299.5593187966618</v>
       </c>
       <c r="O18" t="n">
-        <v>17.33114802578111</v>
+        <v>17.3077820299616</v>
       </c>
       <c r="P18" t="n">
-        <v>386.299292799858</v>
+        <v>386.5456054126513</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -22313,28 +22507,28 @@
         <v>0.0581</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.06196536051414546</v>
+        <v>-0.08517522885853392</v>
       </c>
       <c r="J19" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K19" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0007663743215846619</v>
+        <v>0.001467011129821061</v>
       </c>
       <c r="M19" t="n">
-        <v>13.49612107276071</v>
+        <v>13.46752886742511</v>
       </c>
       <c r="N19" t="n">
-        <v>275.3400465025532</v>
+        <v>274.9847754805791</v>
       </c>
       <c r="O19" t="n">
-        <v>16.5933735720785</v>
+        <v>16.58266490889143</v>
       </c>
       <c r="P19" t="n">
-        <v>388.2320810288309</v>
+        <v>388.4555999317253</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -22391,28 +22585,28 @@
         <v>0.0475</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.09387119159177362</v>
+        <v>-0.1134557037781234</v>
       </c>
       <c r="J20" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K20" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L20" t="n">
-        <v>0.00154374818307057</v>
+        <v>0.002292033396746551</v>
       </c>
       <c r="M20" t="n">
-        <v>14.21677732014012</v>
+        <v>14.16759383841875</v>
       </c>
       <c r="N20" t="n">
-        <v>310.8187326333834</v>
+        <v>309.4490539760531</v>
       </c>
       <c r="O20" t="n">
-        <v>17.63005197477828</v>
+        <v>17.59116408814531</v>
       </c>
       <c r="P20" t="n">
-        <v>389.5731174599365</v>
+        <v>389.7621827243709</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -22469,28 +22663,28 @@
         <v>0.0455</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.1183128616191305</v>
+        <v>-0.1349914698679348</v>
       </c>
       <c r="J21" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K21" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L21" t="n">
-        <v>0.002321198850589012</v>
+        <v>0.003071294061479768</v>
       </c>
       <c r="M21" t="n">
-        <v>14.41631360721435</v>
+        <v>14.36891077968163</v>
       </c>
       <c r="N21" t="n">
-        <v>329.0295112722513</v>
+        <v>327.5283045425988</v>
       </c>
       <c r="O21" t="n">
-        <v>18.13917063352818</v>
+        <v>18.09774307869903</v>
       </c>
       <c r="P21" t="n">
-        <v>393.5453608404903</v>
+        <v>393.7061803207509</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -22547,28 +22741,28 @@
         <v>0.045</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0745660959350154</v>
+        <v>0.06701206460836645</v>
       </c>
       <c r="J22" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K22" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0007388014901023032</v>
+        <v>0.0006053116720545759</v>
       </c>
       <c r="M22" t="n">
-        <v>16.76228910250784</v>
+        <v>16.76728277010353</v>
       </c>
       <c r="N22" t="n">
-        <v>444.30660897096</v>
+        <v>442.9176893056519</v>
       </c>
       <c r="O22" t="n">
-        <v>21.07858175900267</v>
+        <v>21.04560973945996</v>
       </c>
       <c r="P22" t="n">
-        <v>384.0860060501555</v>
+        <v>384.1562041045547</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -22625,28 +22819,28 @@
         <v>0.048</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.08329288667209643</v>
+        <v>-0.1177761356127355</v>
       </c>
       <c r="J23" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K23" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0006952719612050018</v>
+        <v>0.001404723189953438</v>
       </c>
       <c r="M23" t="n">
-        <v>19.31971908799783</v>
+        <v>19.33499506863603</v>
       </c>
       <c r="N23" t="n">
-        <v>575.0775800023407</v>
+        <v>575.7283800298291</v>
       </c>
       <c r="O23" t="n">
-        <v>23.98077521687614</v>
+        <v>23.99434058335067</v>
       </c>
       <c r="P23" t="n">
-        <v>380.7243158018375</v>
+        <v>381.0494179499145</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -22703,28 +22897,28 @@
         <v>0.0492</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4487116263687491</v>
+        <v>0.4165644163011691</v>
       </c>
       <c r="J24" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K24" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L24" t="n">
-        <v>0.026056364113208</v>
+        <v>0.02281710949313387</v>
       </c>
       <c r="M24" t="n">
-        <v>16.69061564368279</v>
+        <v>16.6751628271322</v>
       </c>
       <c r="N24" t="n">
-        <v>414.8984943169646</v>
+        <v>414.5812464187294</v>
       </c>
       <c r="O24" t="n">
-        <v>20.36905727609809</v>
+        <v>20.3612682910159</v>
       </c>
       <c r="P24" t="n">
-        <v>378.734690428535</v>
+        <v>379.0485158799876</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -22781,28 +22975,28 @@
         <v>0.051</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5351680556233767</v>
+        <v>0.5062345844356858</v>
       </c>
       <c r="J25" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K25" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L25" t="n">
-        <v>0.03970398839722322</v>
+        <v>0.0361215280912629</v>
       </c>
       <c r="M25" t="n">
-        <v>15.67873480397614</v>
+        <v>15.65974456641366</v>
       </c>
       <c r="N25" t="n">
-        <v>382.8899664678997</v>
+        <v>382.509454469255</v>
       </c>
       <c r="O25" t="n">
-        <v>19.56757436341816</v>
+        <v>19.55784892234458</v>
       </c>
       <c r="P25" t="n">
-        <v>380.7572095213284</v>
+        <v>381.0386585564412</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -22859,28 +23053,28 @@
         <v>0.056</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3374177340919853</v>
+        <v>0.3064103799048635</v>
       </c>
       <c r="J26" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K26" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01900854198232993</v>
+        <v>0.0159351887047634</v>
       </c>
       <c r="M26" t="n">
-        <v>14.14064357268538</v>
+        <v>14.12668907949432</v>
       </c>
       <c r="N26" t="n">
-        <v>326.0041506471653</v>
+        <v>325.7535548686668</v>
       </c>
       <c r="O26" t="n">
-        <v>18.05558502644446</v>
+        <v>18.04864412826257</v>
       </c>
       <c r="P26" t="n">
-        <v>383.7450152380765</v>
+        <v>384.0434988540783</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -22918,7 +23112,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA223"/>
+  <dimension ref="A1:AA225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50773,6 +50967,280 @@
         </is>
       </c>
     </row>
+    <row r="224">
+      <c r="A224" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>-34.771881298075556,173.14916534725432</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>-34.77240228871235,173.14851655498072</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>-34.77297496380793,173.1479234358668</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>-34.773640265392,173.1474990071121</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>-34.77432473427509,173.14707056539817</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>-34.775082212978695,173.14690753327392</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>-34.77582492378271,173.14665873962895</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>-34.77659093110377,173.14673086221518</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>-34.777339420902564,173.1469101399185</t>
+        </is>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>-34.778082079641656,173.14703187684754</t>
+        </is>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>-34.778809703550415,173.147191153066</t>
+        </is>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>-34.77949448346899,173.14761198282102</t>
+        </is>
+      </c>
+      <c r="N224" t="inlineStr">
+        <is>
+          <t>-34.78018800133661,173.1479054472544</t>
+        </is>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>-34.78083549180127,173.14834546217756</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>-34.78150698263131,173.14871056238476</t>
+        </is>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>-34.78215130167543,173.14912705629345</t>
+        </is>
+      </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>-34.78280104974822,173.1495495873965</t>
+        </is>
+      </c>
+      <c r="S224" t="inlineStr">
+        <is>
+          <t>-34.783431460155356,173.15001681407907</t>
+        </is>
+      </c>
+      <c r="T224" t="inlineStr">
+        <is>
+          <t>-34.78403382719632,173.15053714330404</t>
+        </is>
+      </c>
+      <c r="U224" t="inlineStr">
+        <is>
+          <t>-34.78463697663086,173.15104884169673</t>
+        </is>
+      </c>
+      <c r="V224" t="inlineStr">
+        <is>
+          <t>-34.785253755472205,173.15153797288693</t>
+        </is>
+      </c>
+      <c r="W224" t="inlineStr">
+        <is>
+          <t>-34.7859466338211,173.151926615064</t>
+        </is>
+      </c>
+      <c r="X224" t="inlineStr">
+        <is>
+          <t>-34.78640732353244,173.15265782427915</t>
+        </is>
+      </c>
+      <c r="Y224" t="inlineStr">
+        <is>
+          <t>-34.78695807501014,173.153258148831</t>
+        </is>
+      </c>
+      <c r="Z224" t="inlineStr">
+        <is>
+          <t>-34.78753785151536,173.15381366906627</t>
+        </is>
+      </c>
+      <c r="AA224" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>-34.77192253484675,173.1492267407821</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>-34.772446913969596,173.14858983378093</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>-34.7730265306107,173.14803648876796</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>-34.7736794731812,173.14760465763158</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>-34.77436653886581,173.1472413478375</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>-34.77509151298743,173.1469844157114</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>-34.77583621877835,173.14686002328034</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>-34.776587644404636,173.14688797159937</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>-34.77733065816596,173.14700792733572</t>
+        </is>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>-34.77806373122534,173.14715780064458</t>
+        </is>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>-34.77877989766725,173.14738735562503</t>
+        </is>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>-34.77945984970033,173.14775996148674</t>
+        </is>
+      </c>
+      <c r="N225" t="inlineStr">
+        <is>
+          <t>-34.78013351014669,173.14806583346058</t>
+        </is>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>-34.78080083396652,173.14844208808853</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>-34.78144801646622,173.1488607776859</t>
+        </is>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>-34.782091221895136,173.14925312128938</t>
+        </is>
+      </c>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>-34.78272632010345,173.1496911176648</t>
+        </is>
+      </c>
+      <c r="S225" t="inlineStr">
+        <is>
+          <t>-34.78333108216313,173.15020691976932</t>
+        </is>
+      </c>
+      <c r="T225" t="inlineStr">
+        <is>
+          <t>-34.783949246759086,173.1506973300454</t>
+        </is>
+      </c>
+      <c r="U225" t="inlineStr">
+        <is>
+          <t>-34.78453044189996,173.15123155856992</t>
+        </is>
+      </c>
+      <c r="V225" t="inlineStr">
+        <is>
+          <t>-34.78505916134046,173.15183079283133</t>
+        </is>
+      </c>
+      <c r="W225" t="inlineStr">
+        <is>
+          <t>-34.785727771870405,173.15224999191588</t>
+        </is>
+      </c>
+      <c r="X225" t="inlineStr">
+        <is>
+          <t>-34.786276082499654,173.1528580600466</t>
+        </is>
+      </c>
+      <c r="Y225" t="inlineStr">
+        <is>
+          <t>-34.7868248442702,173.15346469616838</t>
+        </is>
+      </c>
+      <c r="Z225" t="inlineStr">
+        <is>
+          <t>-34.787439150009554,173.15396668586564</t>
+        </is>
+      </c>
+      <c r="AA225" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0018/nzd0018.xlsx
+++ b/data/nzd0018/nzd0018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -26603,7 +26603,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>-34.785181518140135,173.1516466739397</t>
+          <t>-34.78518151814013,173.1516466739397</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
@@ -34872,7 +34872,7 @@
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
         <is>
-          <t>-34.775830155254916,173.14675196688225</t>
+          <t>-34.77583015525491,173.14675196688225</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -42946,7 +42946,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>-34.772605548195074,173.14885032708438</t>
+          <t>-34.77260554819508,173.14885032708438</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">

--- a/data/nzd0018/nzd0018.xlsx
+++ b/data/nzd0018/nzd0018.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA225"/>
+  <dimension ref="A1:AA226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18709,6 +18709,93 @@
         </is>
       </c>
     </row>
+    <row r="226">
+      <c r="A226" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>357.9990909090909</v>
+      </c>
+      <c r="C226" t="n">
+        <v>355.6790909090909</v>
+      </c>
+      <c r="D226" t="n">
+        <v>346.0633333333333</v>
+      </c>
+      <c r="E226" t="n">
+        <v>342.2733333333333</v>
+      </c>
+      <c r="F226" t="n">
+        <v>332.74</v>
+      </c>
+      <c r="G226" t="n">
+        <v>330.93</v>
+      </c>
+      <c r="H226" t="n">
+        <v>329.41</v>
+      </c>
+      <c r="I226" t="n">
+        <v>338.43</v>
+      </c>
+      <c r="J226" t="n">
+        <v>342.6833333333333</v>
+      </c>
+      <c r="K226" t="n">
+        <v>341.36</v>
+      </c>
+      <c r="L226" t="n">
+        <v>360.509090909091</v>
+      </c>
+      <c r="M226" t="n">
+        <v>374.4190909090909</v>
+      </c>
+      <c r="N226" t="n">
+        <v>360.61</v>
+      </c>
+      <c r="O226" t="n">
+        <v>368.6933333333333</v>
+      </c>
+      <c r="P226" t="n">
+        <v>380.47</v>
+      </c>
+      <c r="Q226" t="n">
+        <v>373.61</v>
+      </c>
+      <c r="R226" t="n">
+        <v>369.0990909090909</v>
+      </c>
+      <c r="S226" t="n">
+        <v>374.79</v>
+      </c>
+      <c r="T226" t="n">
+        <v>390.15</v>
+      </c>
+      <c r="U226" t="n">
+        <v>381.2</v>
+      </c>
+      <c r="V226" t="n">
+        <v>373.86</v>
+      </c>
+      <c r="W226" t="n">
+        <v>388.0211111111111</v>
+      </c>
+      <c r="X226" t="n">
+        <v>368.4011111111111</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>372.4611111111111</v>
+      </c>
+      <c r="Z226" t="n">
+        <v>370.98</v>
+      </c>
+      <c r="AA226" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18720,7 +18807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B228"/>
+  <dimension ref="A1:B229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21008,6 +21095,16 @@
       </c>
       <c r="B228" t="n">
         <v>-0.21</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>-0.9399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -21181,28 +21278,28 @@
         <v>0.0634</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1542808444366458</v>
+        <v>0.1282811121666175</v>
       </c>
       <c r="J2" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K2" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L2" t="n">
-        <v>0.009599990361853883</v>
+        <v>0.006566240198824236</v>
       </c>
       <c r="M2" t="n">
-        <v>9.550724901765907</v>
+        <v>9.647822505233824</v>
       </c>
       <c r="N2" t="n">
-        <v>141.001428510244</v>
+        <v>143.8194229268933</v>
       </c>
       <c r="O2" t="n">
-        <v>11.87440223801788</v>
+        <v>11.99247359500505</v>
       </c>
       <c r="P2" t="n">
-        <v>380.769644314667</v>
+        <v>381.0159590617238</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -21259,28 +21356,28 @@
         <v>0.0633</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1622239623991468</v>
+        <v>0.139885135171222</v>
       </c>
       <c r="J3" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K3" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L3" t="n">
-        <v>0.009132749241467786</v>
+        <v>0.006774519760141984</v>
       </c>
       <c r="M3" t="n">
-        <v>10.14144940824904</v>
+        <v>10.21981332946589</v>
       </c>
       <c r="N3" t="n">
-        <v>163.298678185003</v>
+        <v>165.0778204494247</v>
       </c>
       <c r="O3" t="n">
-        <v>12.7788371217808</v>
+        <v>12.8482613784677</v>
       </c>
       <c r="P3" t="n">
-        <v>374.5322938169228</v>
+        <v>374.7438758716968</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -21337,28 +21434,28 @@
         <v>0.06710000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002535969383821462</v>
+        <v>-0.02266204053192158</v>
       </c>
       <c r="J4" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K4" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L4" t="n">
-        <v>1.624017884505058e-06</v>
+        <v>0.0001292365019948116</v>
       </c>
       <c r="M4" t="n">
-        <v>12.0271594175452</v>
+        <v>12.11167310444671</v>
       </c>
       <c r="N4" t="n">
-        <v>223.428811263125</v>
+        <v>225.5628002165021</v>
       </c>
       <c r="O4" t="n">
-        <v>14.94753529057968</v>
+        <v>15.01874829060339</v>
       </c>
       <c r="P4" t="n">
-        <v>371.8286350353536</v>
+        <v>372.0693698361619</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21415,28 +21512,28 @@
         <v>0.076</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.04576690477460859</v>
+        <v>-0.07002619366805635</v>
       </c>
       <c r="J5" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K5" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0003938558552682991</v>
+        <v>0.0009227047579546399</v>
       </c>
       <c r="M5" t="n">
-        <v>13.94951914205799</v>
+        <v>13.99789035191423</v>
       </c>
       <c r="N5" t="n">
-        <v>293.8161566944929</v>
+        <v>295.2628687496662</v>
       </c>
       <c r="O5" t="n">
-        <v>17.14106638148552</v>
+        <v>17.18321473850764</v>
       </c>
       <c r="P5" t="n">
-        <v>367.8009529531233</v>
+        <v>368.0373543746513</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21493,28 +21590,28 @@
         <v>0.0489</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1369874445983008</v>
+        <v>-0.174361193656157</v>
       </c>
       <c r="J6" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K6" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002336891408269426</v>
+        <v>0.00376746028267505</v>
       </c>
       <c r="M6" t="n">
-        <v>17.13539341937409</v>
+        <v>17.22814004287612</v>
       </c>
       <c r="N6" t="n">
-        <v>440.075282878448</v>
+        <v>444.4043671213549</v>
       </c>
       <c r="O6" t="n">
-        <v>20.97797137185691</v>
+        <v>21.08090052918411</v>
       </c>
       <c r="P6" t="n">
-        <v>372.1751074874273</v>
+        <v>372.5422442078091</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -21571,28 +21668,28 @@
         <v>0.0599</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2905306002187196</v>
+        <v>-0.3180337984413954</v>
       </c>
       <c r="J7" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K7" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01089126296176013</v>
+        <v>0.01305274062882877</v>
       </c>
       <c r="M7" t="n">
-        <v>17.26139044262827</v>
+        <v>17.30567616744933</v>
       </c>
       <c r="N7" t="n">
-        <v>429.0197704086245</v>
+        <v>430.6556389671778</v>
       </c>
       <c r="O7" t="n">
-        <v>20.71279243387102</v>
+        <v>20.75224419110323</v>
       </c>
       <c r="P7" t="n">
-        <v>366.1315913119212</v>
+        <v>366.3971735157465</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -21649,28 +21746,28 @@
         <v>0.056</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04807691107491525</v>
+        <v>0.01588822436223231</v>
       </c>
       <c r="J8" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K8" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002367355882729738</v>
+        <v>2.593122125160718e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>19.18593969941984</v>
+        <v>19.23485575447927</v>
       </c>
       <c r="N8" t="n">
-        <v>537.0812589072236</v>
+        <v>539.1007019289304</v>
       </c>
       <c r="O8" t="n">
-        <v>23.17501367652722</v>
+        <v>23.21854220076985</v>
       </c>
       <c r="P8" t="n">
-        <v>358.7714750419535</v>
+        <v>359.0860942656394</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -21727,28 +21824,28 @@
         <v>0.0611</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2202973292011075</v>
+        <v>-0.242504624861718</v>
       </c>
       <c r="J9" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K9" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0062016716242137</v>
+        <v>0.00754622925770998</v>
       </c>
       <c r="M9" t="n">
-        <v>16.8636640882181</v>
+        <v>16.88049030292171</v>
       </c>
       <c r="N9" t="n">
-        <v>430.0796138531364</v>
+        <v>430.2908476032437</v>
       </c>
       <c r="O9" t="n">
-        <v>20.7383609249414</v>
+        <v>20.74345312630575</v>
       </c>
       <c r="P9" t="n">
-        <v>366.001105799034</v>
+        <v>366.2196619566633</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -21805,28 +21902,28 @@
         <v>0.0682</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0413610732318507</v>
+        <v>0.01629135793017449</v>
       </c>
       <c r="J10" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K10" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0002735975817010905</v>
+        <v>4.254349926269274e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>15.47697890421266</v>
+        <v>15.50996656459574</v>
       </c>
       <c r="N10" t="n">
-        <v>345.2927173473606</v>
+        <v>346.6110417260766</v>
       </c>
       <c r="O10" t="n">
-        <v>18.58205363643536</v>
+        <v>18.61749289582452</v>
       </c>
       <c r="P10" t="n">
-        <v>366.2504989254744</v>
+        <v>366.4987169463976</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -21883,28 +21980,28 @@
         <v>0.0471</v>
       </c>
       <c r="I11" t="n">
-        <v>0.04051131442797328</v>
+        <v>0.0152739226796789</v>
       </c>
       <c r="J11" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K11" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0002109466218878087</v>
+        <v>3.009610978621513e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>16.52119614627642</v>
+        <v>16.5623411025356</v>
       </c>
       <c r="N11" t="n">
-        <v>424.5795266283895</v>
+        <v>425.493223303635</v>
       </c>
       <c r="O11" t="n">
-        <v>20.60532762730041</v>
+        <v>20.62748708164994</v>
       </c>
       <c r="P11" t="n">
-        <v>364.9331203760436</v>
+        <v>365.1874551215081</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -21961,28 +22058,28 @@
         <v>0.06660000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2648770739296484</v>
+        <v>-0.2731876131165974</v>
       </c>
       <c r="J12" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K12" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L12" t="n">
-        <v>0.009041568022097435</v>
+        <v>0.009709781111148397</v>
       </c>
       <c r="M12" t="n">
-        <v>17.0205845237785</v>
+        <v>16.97154096471738</v>
       </c>
       <c r="N12" t="n">
-        <v>423.0456454849256</v>
+        <v>421.2214227609894</v>
       </c>
       <c r="O12" t="n">
-        <v>20.56807345098042</v>
+        <v>20.52367956193502</v>
       </c>
       <c r="P12" t="n">
-        <v>375.6264613237357</v>
+        <v>375.7087280656802</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -22039,28 +22136,28 @@
         <v>0.0639</v>
       </c>
       <c r="I13" t="n">
-        <v>0.04035403933627957</v>
+        <v>0.03040353974909217</v>
       </c>
       <c r="J13" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K13" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0002869938364368219</v>
+        <v>0.0001644821027994015</v>
       </c>
       <c r="M13" t="n">
-        <v>14.9096116865354</v>
+        <v>14.87805267800081</v>
       </c>
       <c r="N13" t="n">
-        <v>321.8238260423967</v>
+        <v>320.722502112526</v>
       </c>
       <c r="O13" t="n">
-        <v>17.93944887788911</v>
+        <v>17.90872698190818</v>
       </c>
       <c r="P13" t="n">
-        <v>383.5351320703361</v>
+        <v>383.6302506048032</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -22117,28 +22214,28 @@
         <v>0.0561</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1356791785978977</v>
+        <v>0.1119844733696211</v>
       </c>
       <c r="J14" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K14" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L14" t="n">
-        <v>0.003163951966164147</v>
+        <v>0.00216153582894052</v>
       </c>
       <c r="M14" t="n">
-        <v>14.59428162365984</v>
+        <v>14.6213527231919</v>
       </c>
       <c r="N14" t="n">
-        <v>327.728862468544</v>
+        <v>329.0648280524143</v>
       </c>
       <c r="O14" t="n">
-        <v>18.1032831958334</v>
+        <v>18.14014410230564</v>
       </c>
       <c r="P14" t="n">
-        <v>381.8242742572283</v>
+        <v>382.051438900975</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -22195,28 +22292,28 @@
         <v>0.0684</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1973850059838976</v>
+        <v>0.1799286185840471</v>
       </c>
       <c r="J15" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K15" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L15" t="n">
-        <v>0.00771336648802845</v>
+        <v>0.006450620338083191</v>
       </c>
       <c r="M15" t="n">
-        <v>13.64245367401037</v>
+        <v>13.64126007975387</v>
       </c>
       <c r="N15" t="n">
-        <v>281.814288957661</v>
+        <v>282.014599027652</v>
       </c>
       <c r="O15" t="n">
-        <v>16.78732524727096</v>
+        <v>16.79329029784372</v>
       </c>
       <c r="P15" t="n">
-        <v>381.6912907160068</v>
+        <v>381.8600006935277</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -22273,28 +22370,28 @@
         <v>0.0551</v>
       </c>
       <c r="I16" t="n">
-        <v>0.09354363124190383</v>
+        <v>0.08497876438177479</v>
       </c>
       <c r="J16" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K16" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001755961549690932</v>
+        <v>0.001463321602486412</v>
       </c>
       <c r="M16" t="n">
-        <v>13.58595763118138</v>
+        <v>13.56286273768433</v>
       </c>
       <c r="N16" t="n">
-        <v>277.7537345574377</v>
+        <v>276.784116916066</v>
       </c>
       <c r="O16" t="n">
-        <v>16.66594535444773</v>
+        <v>16.63683013425532</v>
       </c>
       <c r="P16" t="n">
-        <v>386.9543572922182</v>
+        <v>387.0371562969969</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -22351,28 +22448,28 @@
         <v>0.0601</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.1237283604454766</v>
+        <v>-0.1380294458001977</v>
       </c>
       <c r="J17" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K17" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L17" t="n">
-        <v>0.002971113660511726</v>
+        <v>0.003722772070813507</v>
       </c>
       <c r="M17" t="n">
-        <v>13.63514306399879</v>
+        <v>13.62945430852014</v>
       </c>
       <c r="N17" t="n">
-        <v>283.4284023038186</v>
+        <v>283.0876091444168</v>
       </c>
       <c r="O17" t="n">
-        <v>16.83533196298245</v>
+        <v>16.8252075513028</v>
       </c>
       <c r="P17" t="n">
-        <v>391.4913779881094</v>
+        <v>391.6291098724433</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -22429,28 +22526,28 @@
         <v>0.06610000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.0004772360783156371</v>
+        <v>-0.01762949386197372</v>
       </c>
       <c r="J18" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K18" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L18" t="n">
-        <v>4.200888692462712e-08</v>
+        <v>5.767416423796412e-05</v>
       </c>
       <c r="M18" t="n">
-        <v>14.0511468733219</v>
+        <v>14.05247728843823</v>
       </c>
       <c r="N18" t="n">
-        <v>299.5593187966618</v>
+        <v>299.5572201400106</v>
       </c>
       <c r="O18" t="n">
-        <v>17.3077820299616</v>
+        <v>17.30772140231089</v>
       </c>
       <c r="P18" t="n">
-        <v>386.5456054126513</v>
+        <v>386.71259460355</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -22507,28 +22604,28 @@
         <v>0.0581</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.08517522885853392</v>
+        <v>-0.09645382264025659</v>
       </c>
       <c r="J19" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K19" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001467011129821061</v>
+        <v>0.001896928978206369</v>
       </c>
       <c r="M19" t="n">
-        <v>13.46752886742511</v>
+        <v>13.45153666085901</v>
       </c>
       <c r="N19" t="n">
-        <v>274.9847754805791</v>
+        <v>274.2637519108584</v>
       </c>
       <c r="O19" t="n">
-        <v>16.58266490889143</v>
+        <v>16.56091035875922</v>
       </c>
       <c r="P19" t="n">
-        <v>388.4555999317253</v>
+        <v>388.564764702186</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -22585,28 +22682,28 @@
         <v>0.0475</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.1134557037781234</v>
+        <v>-0.1102008684611318</v>
       </c>
       <c r="J20" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K20" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L20" t="n">
-        <v>0.002292033396746551</v>
+        <v>0.002186322346570013</v>
       </c>
       <c r="M20" t="n">
-        <v>14.16759383841875</v>
+        <v>14.11559129810905</v>
       </c>
       <c r="N20" t="n">
-        <v>309.4490539760531</v>
+        <v>307.9924669357881</v>
       </c>
       <c r="O20" t="n">
-        <v>17.59116408814531</v>
+        <v>17.54971415538692</v>
       </c>
       <c r="P20" t="n">
-        <v>389.7621827243709</v>
+        <v>389.7306052659073</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -22663,28 +22760,28 @@
         <v>0.0455</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.1349914698679348</v>
+        <v>-0.1437619225550806</v>
       </c>
       <c r="J21" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K21" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L21" t="n">
-        <v>0.003071294061479768</v>
+        <v>0.003516004810614204</v>
       </c>
       <c r="M21" t="n">
-        <v>14.36891077968163</v>
+        <v>14.33889628487799</v>
       </c>
       <c r="N21" t="n">
-        <v>327.5283045425988</v>
+        <v>326.3268754158945</v>
       </c>
       <c r="O21" t="n">
-        <v>18.09774307869903</v>
+        <v>18.06451979477712</v>
       </c>
       <c r="P21" t="n">
-        <v>393.7061803207509</v>
+        <v>393.7911828460309</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -22741,28 +22838,28 @@
         <v>0.045</v>
       </c>
       <c r="I22" t="n">
-        <v>0.06701206460836645</v>
+        <v>0.05555701612278759</v>
       </c>
       <c r="J22" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K22" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0006053116720545759</v>
+        <v>0.0004198742251086962</v>
       </c>
       <c r="M22" t="n">
-        <v>16.76728277010353</v>
+        <v>16.74300428968834</v>
       </c>
       <c r="N22" t="n">
-        <v>442.9176893056519</v>
+        <v>441.3606322561677</v>
       </c>
       <c r="O22" t="n">
-        <v>21.04560973945996</v>
+        <v>21.00858472758619</v>
       </c>
       <c r="P22" t="n">
-        <v>384.1562041045547</v>
+        <v>384.2634765753766</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -22819,28 +22916,28 @@
         <v>0.048</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.1177761356127355</v>
+        <v>-0.107482039080152</v>
       </c>
       <c r="J23" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K23" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L23" t="n">
-        <v>0.001404723189953438</v>
+        <v>0.001182559293811281</v>
       </c>
       <c r="M23" t="n">
-        <v>19.33499506863603</v>
+        <v>19.27784330531659</v>
       </c>
       <c r="N23" t="n">
-        <v>575.7283800298291</v>
+        <v>573.1212638863669</v>
       </c>
       <c r="O23" t="n">
-        <v>23.99434058335067</v>
+        <v>23.93995120893873</v>
       </c>
       <c r="P23" t="n">
-        <v>381.0494179499145</v>
+        <v>380.9518201741935</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -22897,28 +22994,28 @@
         <v>0.0492</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4165644163011691</v>
+        <v>0.3951783121452703</v>
       </c>
       <c r="J24" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K24" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02281710949313387</v>
+        <v>0.02068953912732951</v>
       </c>
       <c r="M24" t="n">
-        <v>16.6751628271322</v>
+        <v>16.69352482015393</v>
       </c>
       <c r="N24" t="n">
-        <v>414.5812464187294</v>
+        <v>414.7700117448304</v>
       </c>
       <c r="O24" t="n">
-        <v>20.3612682910159</v>
+        <v>20.36590316545845</v>
       </c>
       <c r="P24" t="n">
-        <v>379.0485158799876</v>
+        <v>379.2583651125714</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -22975,28 +23072,28 @@
         <v>0.051</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5062345844356858</v>
+        <v>0.4846921709533218</v>
       </c>
       <c r="J25" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K25" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0361215280912629</v>
+        <v>0.03336593448386505</v>
       </c>
       <c r="M25" t="n">
-        <v>15.65974456641366</v>
+        <v>15.68407307599822</v>
       </c>
       <c r="N25" t="n">
-        <v>382.509454469255</v>
+        <v>382.915641659476</v>
       </c>
       <c r="O25" t="n">
-        <v>19.55784892234458</v>
+        <v>19.56823041717048</v>
       </c>
       <c r="P25" t="n">
-        <v>381.0386585564412</v>
+        <v>381.2493005226789</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -23053,28 +23150,28 @@
         <v>0.056</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3064103799048635</v>
+        <v>0.2851409610633043</v>
       </c>
       <c r="J26" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K26" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0159351887047634</v>
+        <v>0.0138898106071933</v>
       </c>
       <c r="M26" t="n">
-        <v>14.12668907949432</v>
+        <v>14.14662617105285</v>
       </c>
       <c r="N26" t="n">
-        <v>325.7535548686668</v>
+        <v>326.3095453594077</v>
       </c>
       <c r="O26" t="n">
-        <v>18.04864412826257</v>
+        <v>18.06404011729955</v>
       </c>
       <c r="P26" t="n">
-        <v>384.0434988540783</v>
+        <v>384.2492675936631</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -23112,7 +23209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA225"/>
+  <dimension ref="A1:AA226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51241,6 +51338,143 @@
         </is>
       </c>
     </row>
+    <row r="226">
+      <c r="A226" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>-34.771831092471245,173.1490906010249</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>-34.772392012288655,173.148499680164</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>-34.772966471126374,173.14790481690275</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>-34.773636763811375,173.1474895716617</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>-34.77430944861015,173.14700811983735</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>-34.77507393318316,173.146839085211</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>-34.775826979668025,173.14669537630255</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>-34.77658961461996,173.14679379337485</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>-34.77734169595579,173.14688475140414</t>
+        </is>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>-34.77808353809993,173.14702186751765</t>
+        </is>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>-34.77877947757111,173.14739012096715</t>
+        </is>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>-34.77947398198202,173.147699579018</t>
+        </is>
+      </c>
+      <c r="N226" t="inlineStr">
+        <is>
+          <t>-34.78019648230306,173.147880484795</t>
+        </is>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>-34.780844719496756,173.14831973534805</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>-34.78147451639514,173.1487932696533</t>
+        </is>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>-34.78214800901819,173.14913396526566</t>
+        </is>
+      </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>-34.78278801814028,173.14957426796374</t>
+        </is>
+      </c>
+      <c r="S226" t="inlineStr">
+        <is>
+          <t>-34.783381878811376,173.15011071622098</t>
+        </is>
+      </c>
+      <c r="T226" t="inlineStr">
+        <is>
+          <t>-34.783928733540755,173.1507361798839</t>
+        </is>
+      </c>
+      <c r="U226" t="inlineStr">
+        <is>
+          <t>-34.78458774273467,173.1511332824792</t>
+        </is>
+      </c>
+      <c r="V226" t="inlineStr">
+        <is>
+          <t>-34.785202787717104,173.1516146680112</t>
+        </is>
+      </c>
+      <c r="W226" t="inlineStr">
+        <is>
+          <t>-34.78568792034631,173.1523088737365</t>
+        </is>
+      </c>
+      <c r="X226" t="inlineStr">
+        <is>
+          <t>-34.786374764169466,173.1527075005339</t>
+        </is>
+      </c>
+      <c r="Y226" t="inlineStr">
+        <is>
+          <t>-34.78693377776828,173.15329581688442</t>
+        </is>
+      </c>
+      <c r="Z226" t="inlineStr">
+        <is>
+          <t>-34.78752329902635,173.1538362298103</t>
+        </is>
+      </c>
+      <c r="AA226" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0018/nzd0018.xlsx
+++ b/data/nzd0018/nzd0018.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA226"/>
+  <dimension ref="A1:AA227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18796,6 +18796,93 @@
         </is>
       </c>
     </row>
+    <row r="227">
+      <c r="A227" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>372.0627272727273</v>
+      </c>
+      <c r="C227" t="n">
+        <v>363.2227272727272</v>
+      </c>
+      <c r="D227" t="n">
+        <v>355.3933333333333</v>
+      </c>
+      <c r="E227" t="n">
+        <v>351.2133333333333</v>
+      </c>
+      <c r="F227" t="n">
+        <v>355.63</v>
+      </c>
+      <c r="G227" t="n">
+        <v>345.95</v>
+      </c>
+      <c r="H227" t="n">
+        <v>341.56</v>
+      </c>
+      <c r="I227" t="n">
+        <v>346.55</v>
+      </c>
+      <c r="J227" t="n">
+        <v>351.3333333333333</v>
+      </c>
+      <c r="K227" t="n">
+        <v>345.43</v>
+      </c>
+      <c r="L227" t="n">
+        <v>353.6527272727272</v>
+      </c>
+      <c r="M227" t="n">
+        <v>374.7527272727273</v>
+      </c>
+      <c r="N227" t="n">
+        <v>368.8</v>
+      </c>
+      <c r="O227" t="n">
+        <v>369.0133333333333</v>
+      </c>
+      <c r="P227" t="n">
+        <v>376.46</v>
+      </c>
+      <c r="Q227" t="n">
+        <v>373.34</v>
+      </c>
+      <c r="R227" t="n">
+        <v>372.3127272727273</v>
+      </c>
+      <c r="S227" t="n">
+        <v>368.77</v>
+      </c>
+      <c r="T227" t="n">
+        <v>373.03</v>
+      </c>
+      <c r="U227" t="n">
+        <v>377.24</v>
+      </c>
+      <c r="V227" t="n">
+        <v>367.67</v>
+      </c>
+      <c r="W227" t="n">
+        <v>362.9577777777778</v>
+      </c>
+      <c r="X227" t="n">
+        <v>364.4277777777777</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>368.3777777777778</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>376.75</v>
+      </c>
+      <c r="AA227" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18807,7 +18894,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B229"/>
+  <dimension ref="A1:B230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21105,6 +21192,16 @@
       </c>
       <c r="B229" t="n">
         <v>-0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>-0.37</v>
       </c>
     </row>
   </sheetData>
@@ -21278,28 +21375,28 @@
         <v>0.0634</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1282811121666175</v>
+        <v>0.1164463238913531</v>
       </c>
       <c r="J2" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K2" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006566240198824236</v>
+        <v>0.00544825668781912</v>
       </c>
       <c r="M2" t="n">
-        <v>9.647822505233824</v>
+        <v>9.666417123286537</v>
       </c>
       <c r="N2" t="n">
-        <v>143.8194229268933</v>
+        <v>143.842264594958</v>
       </c>
       <c r="O2" t="n">
-        <v>11.99247359500505</v>
+        <v>11.99342589066852</v>
       </c>
       <c r="P2" t="n">
-        <v>381.0159590617238</v>
+        <v>381.1285503988212</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -21356,28 +21453,28 @@
         <v>0.0633</v>
       </c>
       <c r="I3" t="n">
-        <v>0.139885135171222</v>
+        <v>0.1253206150101218</v>
       </c>
       <c r="J3" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K3" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006774519760141984</v>
+        <v>0.005467475021759372</v>
       </c>
       <c r="M3" t="n">
-        <v>10.21981332946589</v>
+        <v>10.25294731710684</v>
       </c>
       <c r="N3" t="n">
-        <v>165.0778204494247</v>
+        <v>165.3772510738515</v>
       </c>
       <c r="O3" t="n">
-        <v>12.8482613784677</v>
+        <v>12.85990867284257</v>
       </c>
       <c r="P3" t="n">
-        <v>374.7438758716968</v>
+        <v>374.8823975870762</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -21434,28 +21531,28 @@
         <v>0.06710000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.02266204053192158</v>
+        <v>-0.03822848322302308</v>
       </c>
       <c r="J4" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K4" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0001292365019948116</v>
+        <v>0.0003696871579604855</v>
       </c>
       <c r="M4" t="n">
-        <v>12.11167310444671</v>
+        <v>12.14346068971756</v>
       </c>
       <c r="N4" t="n">
-        <v>225.5628002165021</v>
+        <v>225.7058384490607</v>
       </c>
       <c r="O4" t="n">
-        <v>15.01874829060339</v>
+        <v>15.0235095250431</v>
       </c>
       <c r="P4" t="n">
-        <v>372.0693698361619</v>
+        <v>372.2186951962882</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21512,28 +21609,28 @@
         <v>0.076</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.07002619366805635</v>
+        <v>-0.0848591821924341</v>
       </c>
       <c r="J5" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K5" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0009227047579546399</v>
+        <v>0.001364400025618995</v>
       </c>
       <c r="M5" t="n">
-        <v>13.99789035191423</v>
+        <v>13.99997670067849</v>
       </c>
       <c r="N5" t="n">
-        <v>295.2628687496662</v>
+        <v>294.8966168283071</v>
       </c>
       <c r="O5" t="n">
-        <v>17.18321473850764</v>
+        <v>17.17255417310736</v>
       </c>
       <c r="P5" t="n">
-        <v>368.0373543746513</v>
+        <v>368.1824823076373</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21590,28 +21687,28 @@
         <v>0.0489</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.174361193656157</v>
+        <v>-0.1871494603718411</v>
       </c>
       <c r="J6" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K6" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00376746028267505</v>
+        <v>0.004380087635961427</v>
       </c>
       <c r="M6" t="n">
-        <v>17.22814004287612</v>
+        <v>17.20002018476344</v>
       </c>
       <c r="N6" t="n">
-        <v>444.4043671213549</v>
+        <v>442.8761120090881</v>
       </c>
       <c r="O6" t="n">
-        <v>21.08090052918411</v>
+        <v>21.0446219260192</v>
       </c>
       <c r="P6" t="n">
-        <v>372.5422442078091</v>
+        <v>372.6683766859081</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -21668,28 +21765,28 @@
         <v>0.0599</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3180337984413954</v>
+        <v>-0.3300500111795568</v>
       </c>
       <c r="J7" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K7" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01305274062882877</v>
+        <v>0.01417438202960541</v>
       </c>
       <c r="M7" t="n">
-        <v>17.30567616744933</v>
+        <v>17.2756561531094</v>
       </c>
       <c r="N7" t="n">
-        <v>430.6556389671778</v>
+        <v>429.2346141707305</v>
       </c>
       <c r="O7" t="n">
-        <v>20.75224419110323</v>
+        <v>20.71797804252941</v>
       </c>
       <c r="P7" t="n">
-        <v>366.3971735157465</v>
+        <v>366.5136818988912</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -21746,28 +21843,28 @@
         <v>0.056</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01588822436223231</v>
+        <v>-0.002808579952608487</v>
       </c>
       <c r="J8" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K8" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L8" t="n">
-        <v>2.593122125160718e-05</v>
+        <v>8.173278248646554e-07</v>
       </c>
       <c r="M8" t="n">
-        <v>19.23485575447927</v>
+        <v>19.22034921921533</v>
       </c>
       <c r="N8" t="n">
-        <v>539.1007019289304</v>
+        <v>537.9345726988284</v>
       </c>
       <c r="O8" t="n">
-        <v>23.21854220076985</v>
+        <v>23.19341658097893</v>
       </c>
       <c r="P8" t="n">
-        <v>359.0860942656394</v>
+        <v>359.269575737112</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -21824,28 +21921,28 @@
         <v>0.0611</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.242504624861718</v>
+        <v>-0.2559751202910335</v>
       </c>
       <c r="J9" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K9" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00754622925770998</v>
+        <v>0.008475951980635887</v>
       </c>
       <c r="M9" t="n">
-        <v>16.88049030292171</v>
+        <v>16.85581626936838</v>
       </c>
       <c r="N9" t="n">
-        <v>430.2908476032437</v>
+        <v>428.9808585696896</v>
       </c>
       <c r="O9" t="n">
-        <v>20.74345312630575</v>
+        <v>20.71185309357156</v>
       </c>
       <c r="P9" t="n">
-        <v>366.2196619566633</v>
+        <v>366.3527819841983</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -21902,28 +21999,28 @@
         <v>0.0682</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01629135793017449</v>
+        <v>0.0005585598043877872</v>
       </c>
       <c r="J10" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K10" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L10" t="n">
-        <v>4.254349926269274e-05</v>
+        <v>5.038595018991288e-08</v>
       </c>
       <c r="M10" t="n">
-        <v>15.50996656459574</v>
+        <v>15.50148311307126</v>
       </c>
       <c r="N10" t="n">
-        <v>346.6110417260766</v>
+        <v>346.0508804214872</v>
       </c>
       <c r="O10" t="n">
-        <v>18.61749289582452</v>
+        <v>18.60244286166436</v>
       </c>
       <c r="P10" t="n">
-        <v>366.4987169463976</v>
+        <v>366.6551405333125</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -21980,28 +22077,28 @@
         <v>0.0471</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0152739226796789</v>
+        <v>-0.005221033846538917</v>
       </c>
       <c r="J11" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K11" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L11" t="n">
-        <v>3.009610978621513e-05</v>
+        <v>3.537577156209615e-06</v>
       </c>
       <c r="M11" t="n">
-        <v>16.5623411025356</v>
+        <v>16.57922386781205</v>
       </c>
       <c r="N11" t="n">
-        <v>425.493223303635</v>
+        <v>425.3564038439662</v>
       </c>
       <c r="O11" t="n">
-        <v>20.62748708164994</v>
+        <v>20.62417037953202</v>
       </c>
       <c r="P11" t="n">
-        <v>365.1874551215081</v>
+        <v>365.3948705971002</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -22058,28 +22155,28 @@
         <v>0.06660000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2731876131165974</v>
+        <v>-0.2881094915850045</v>
       </c>
       <c r="J12" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K12" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L12" t="n">
-        <v>0.009709781111148397</v>
+        <v>0.01087634396548698</v>
       </c>
       <c r="M12" t="n">
-        <v>16.97154096471738</v>
+        <v>16.95349015470798</v>
       </c>
       <c r="N12" t="n">
-        <v>421.2214227609894</v>
+        <v>420.1976980988928</v>
       </c>
       <c r="O12" t="n">
-        <v>20.52367956193502</v>
+        <v>20.49872430418275</v>
       </c>
       <c r="P12" t="n">
-        <v>375.7087280656802</v>
+        <v>375.8570515405117</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -22136,28 +22233,28 @@
         <v>0.0639</v>
       </c>
       <c r="I13" t="n">
-        <v>0.03040353974909217</v>
+        <v>0.02101317802071991</v>
       </c>
       <c r="J13" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K13" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0001644821027994015</v>
+        <v>7.933218969047307e-05</v>
       </c>
       <c r="M13" t="n">
-        <v>14.87805267800081</v>
+        <v>14.84406973749962</v>
       </c>
       <c r="N13" t="n">
-        <v>320.722502112526</v>
+        <v>319.5843229848707</v>
       </c>
       <c r="O13" t="n">
-        <v>17.90872698190818</v>
+        <v>17.87692151867515</v>
       </c>
       <c r="P13" t="n">
-        <v>383.6302506048032</v>
+        <v>383.720387363236</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -22214,28 +22311,28 @@
         <v>0.0561</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1119844733696211</v>
+        <v>0.09662016252158788</v>
       </c>
       <c r="J14" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K14" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L14" t="n">
-        <v>0.00216153582894052</v>
+        <v>0.001621214912900126</v>
       </c>
       <c r="M14" t="n">
-        <v>14.6213527231919</v>
+        <v>14.6132936079247</v>
       </c>
       <c r="N14" t="n">
-        <v>329.0648280524143</v>
+        <v>328.7147728247617</v>
       </c>
       <c r="O14" t="n">
-        <v>18.14014410230564</v>
+        <v>18.13049290076698</v>
       </c>
       <c r="P14" t="n">
-        <v>382.051438900975</v>
+        <v>382.1993474205396</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -22292,28 +22389,28 @@
         <v>0.0684</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1799286185840471</v>
+        <v>0.163168832506237</v>
       </c>
       <c r="J15" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K15" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L15" t="n">
-        <v>0.006450620338083191</v>
+        <v>0.005339981139173444</v>
       </c>
       <c r="M15" t="n">
-        <v>13.64126007975387</v>
+        <v>13.63827310081801</v>
       </c>
       <c r="N15" t="n">
-        <v>282.014599027652</v>
+        <v>282.1122383232136</v>
       </c>
       <c r="O15" t="n">
-        <v>16.79329029784372</v>
+        <v>16.79619713873392</v>
       </c>
       <c r="P15" t="n">
-        <v>381.8600006935277</v>
+        <v>382.0226502316717</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -22370,28 +22467,28 @@
         <v>0.0551</v>
       </c>
       <c r="I16" t="n">
-        <v>0.08497876438177479</v>
+        <v>0.07277713694930014</v>
       </c>
       <c r="J16" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K16" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001463321602486412</v>
+        <v>0.001082252190021005</v>
       </c>
       <c r="M16" t="n">
-        <v>13.56286273768433</v>
+        <v>13.55764066858521</v>
       </c>
       <c r="N16" t="n">
-        <v>276.784116916066</v>
+        <v>276.2239089139733</v>
       </c>
       <c r="O16" t="n">
-        <v>16.63683013425532</v>
+        <v>16.61998522604558</v>
       </c>
       <c r="P16" t="n">
-        <v>387.0371562969969</v>
+        <v>387.1555936058844</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -22448,28 +22545,28 @@
         <v>0.0601</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.1380294458001977</v>
+        <v>-0.1522400845151358</v>
       </c>
       <c r="J17" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K17" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L17" t="n">
-        <v>0.003722772070813507</v>
+        <v>0.004558908891625912</v>
       </c>
       <c r="M17" t="n">
-        <v>13.62945430852014</v>
+        <v>13.62418084927559</v>
       </c>
       <c r="N17" t="n">
-        <v>283.0876091444168</v>
+        <v>282.7537284007978</v>
       </c>
       <c r="O17" t="n">
-        <v>16.8252075513028</v>
+        <v>16.81528258462515</v>
       </c>
       <c r="P17" t="n">
-        <v>391.6291098724433</v>
+        <v>391.7665076957117</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -22526,28 +22623,28 @@
         <v>0.06610000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.01762949386197372</v>
+        <v>-0.03123693737716328</v>
       </c>
       <c r="J18" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K18" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L18" t="n">
-        <v>5.767416423796412e-05</v>
+        <v>0.0001824689834499793</v>
       </c>
       <c r="M18" t="n">
-        <v>14.05247728843823</v>
+        <v>14.03967408101889</v>
       </c>
       <c r="N18" t="n">
-        <v>299.5572201400106</v>
+        <v>299.0267084769287</v>
       </c>
       <c r="O18" t="n">
-        <v>17.30772140231089</v>
+        <v>17.29238874409573</v>
       </c>
       <c r="P18" t="n">
-        <v>386.71259460355</v>
+        <v>386.8456059943368</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -22604,28 +22701,28 @@
         <v>0.0581</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.09645382264025659</v>
+        <v>-0.1133297907345668</v>
       </c>
       <c r="J19" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K19" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001896928978206369</v>
+        <v>0.002631852397707579</v>
       </c>
       <c r="M19" t="n">
-        <v>13.45153666085901</v>
+        <v>13.46112173231356</v>
       </c>
       <c r="N19" t="n">
-        <v>274.2637519108584</v>
+        <v>274.3626040947838</v>
       </c>
       <c r="O19" t="n">
-        <v>16.56091035875922</v>
+        <v>16.56389459320433</v>
       </c>
       <c r="P19" t="n">
-        <v>388.564764702186</v>
+        <v>388.7287690647912</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -22682,28 +22779,28 @@
         <v>0.0475</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.1102008684611318</v>
+        <v>-0.1236625602561462</v>
       </c>
       <c r="J20" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K20" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L20" t="n">
-        <v>0.002186322346570013</v>
+        <v>0.0027736350594737</v>
       </c>
       <c r="M20" t="n">
-        <v>14.11559129810905</v>
+        <v>14.10948304919024</v>
       </c>
       <c r="N20" t="n">
-        <v>307.9924669357881</v>
+        <v>307.4129160626872</v>
       </c>
       <c r="O20" t="n">
-        <v>17.54971415538692</v>
+        <v>17.53319469071986</v>
       </c>
       <c r="P20" t="n">
-        <v>389.7306052659073</v>
+        <v>389.8617280553941</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -22760,28 +22857,28 @@
         <v>0.0455</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.1437619225550806</v>
+        <v>-0.1561353048633717</v>
       </c>
       <c r="J21" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K21" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L21" t="n">
-        <v>0.003516004810614204</v>
+        <v>0.004179942777529089</v>
       </c>
       <c r="M21" t="n">
-        <v>14.33889628487799</v>
+        <v>14.32560081622845</v>
       </c>
       <c r="N21" t="n">
-        <v>326.3268754158945</v>
+        <v>325.5323448257886</v>
       </c>
       <c r="O21" t="n">
-        <v>18.06451979477712</v>
+        <v>18.04251492519235</v>
       </c>
       <c r="P21" t="n">
-        <v>393.7911828460309</v>
+        <v>393.9115856064404</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -22838,28 +22935,28 @@
         <v>0.045</v>
       </c>
       <c r="I22" t="n">
-        <v>0.05555701612278759</v>
+        <v>0.03851608135657224</v>
       </c>
       <c r="J22" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K22" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0004198742251086962</v>
+        <v>0.0002032268956996264</v>
       </c>
       <c r="M22" t="n">
-        <v>16.74300428968834</v>
+        <v>16.74863668748629</v>
       </c>
       <c r="N22" t="n">
-        <v>441.3606322561677</v>
+        <v>440.735860624433</v>
       </c>
       <c r="O22" t="n">
-        <v>21.00858472758619</v>
+        <v>20.99371002525359</v>
       </c>
       <c r="P22" t="n">
-        <v>384.2634765753766</v>
+        <v>384.4237888408608</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -22916,28 +23013,28 @@
         <v>0.048</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.107482039080152</v>
+        <v>-0.1229721286621732</v>
       </c>
       <c r="J23" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K23" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L23" t="n">
-        <v>0.001182559293811281</v>
+        <v>0.001561756620286792</v>
       </c>
       <c r="M23" t="n">
-        <v>19.27784330531659</v>
+        <v>19.26390036843874</v>
       </c>
       <c r="N23" t="n">
-        <v>573.1212638863669</v>
+        <v>571.2422289534778</v>
       </c>
       <c r="O23" t="n">
-        <v>23.93995120893873</v>
+        <v>23.90067423637831</v>
       </c>
       <c r="P23" t="n">
-        <v>380.9518201741935</v>
+        <v>381.0993288457636</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -22994,28 +23091,28 @@
         <v>0.0492</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3951783121452703</v>
+        <v>0.3703322133092345</v>
       </c>
       <c r="J24" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K24" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02068953912732951</v>
+        <v>0.0182738895700435</v>
       </c>
       <c r="M24" t="n">
-        <v>16.69352482015393</v>
+        <v>16.72747958947508</v>
       </c>
       <c r="N24" t="n">
-        <v>414.7700117448304</v>
+        <v>415.8169495246932</v>
       </c>
       <c r="O24" t="n">
-        <v>20.36590316545845</v>
+        <v>20.39159016665187</v>
       </c>
       <c r="P24" t="n">
-        <v>379.2583651125714</v>
+        <v>379.5031904007066</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -23072,28 +23169,28 @@
         <v>0.051</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4846921709533218</v>
+        <v>0.4595931260992145</v>
       </c>
       <c r="J25" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K25" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L25" t="n">
-        <v>0.03336593448386505</v>
+        <v>0.03017172624263764</v>
       </c>
       <c r="M25" t="n">
-        <v>15.68407307599822</v>
+        <v>15.72504329195796</v>
       </c>
       <c r="N25" t="n">
-        <v>382.915641659476</v>
+        <v>384.2117631053503</v>
       </c>
       <c r="O25" t="n">
-        <v>19.56823041717048</v>
+        <v>19.60132044290257</v>
       </c>
       <c r="P25" t="n">
-        <v>381.2493005226789</v>
+        <v>381.4957502362524</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -23150,28 +23247,28 @@
         <v>0.056</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2851409610633043</v>
+        <v>0.2701721258817435</v>
       </c>
       <c r="J26" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K26" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0138898106071933</v>
+        <v>0.0125841416136262</v>
       </c>
       <c r="M26" t="n">
-        <v>14.14662617105285</v>
+        <v>14.14125165431226</v>
       </c>
       <c r="N26" t="n">
-        <v>326.3095453594077</v>
+        <v>325.752329621969</v>
       </c>
       <c r="O26" t="n">
-        <v>18.06404011729955</v>
+        <v>18.0486101853292</v>
       </c>
       <c r="P26" t="n">
-        <v>384.2492675936631</v>
+        <v>384.3946833705515</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -23209,7 +23306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA226"/>
+  <dimension ref="A1:AA227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51475,6 +51572,143 @@
         </is>
       </c>
     </row>
+    <row r="227">
+      <c r="A227" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>-34.771911154370486,173.1492097974568</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>-34.772432407236565,173.14856601236676</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>-34.77300717489425,173.14799405406131</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>-34.77366983152586,173.14757867689707</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>-34.77436815462125,173.1472479486346</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>-34.775093579649436,173.14700150069984</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>-34.77583441380412,173.1468278571461</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>-34.77658775868825,173.14688250882548</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>-34.77733327401334,173.14697873598297</t>
+        </is>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>-34.77807715537861,173.14706567178663</t>
+        </is>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>-34.77879067318586,173.14731642410223</t>
+        </is>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>-34.77947316093687,173.1477030870708</t>
+        </is>
+      </c>
+      <c r="N227" t="inlineStr">
+        <is>
+          <t>-34.78016836118413,173.14796325503553</t>
+        </is>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>-34.780843569031134,173.14832294284918</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>-34.78149005215478,173.14875369255557</t>
+        </is>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>-34.78214922685036,173.14913140989245</t>
+        </is>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>-34.78277239699632,173.14960385283146</t>
+        </is>
+      </c>
+      <c r="S227" t="inlineStr">
+        <is>
+          <t>-34.78341114153493,173.15005529555867</t>
+        </is>
+      </c>
+      <c r="T227" t="inlineStr">
+        <is>
+          <t>-34.78401195296554,173.15057857094095</t>
+        </is>
+      </c>
+      <c r="U227" t="inlineStr">
+        <is>
+          <t>-34.78460835227976,173.15109793518715</t>
+        </is>
+      </c>
+      <c r="V227" t="inlineStr">
+        <is>
+          <t>-34.78523780330545,173.1515619773644</t>
+        </is>
+      </c>
+      <c r="W227" t="inlineStr">
+        <is>
+          <t>-34.78583126749849,173.15209707356303</t>
+        </is>
+      </c>
+      <c r="X227" t="inlineStr">
+        <is>
+          <t>-34.786397052127626,173.15267349550618</t>
+        </is>
+      </c>
+      <c r="Y227" t="inlineStr">
+        <is>
+          <t>-34.78695645807442,173.1532606555703</t>
+        </is>
+      </c>
+      <c r="Z227" t="inlineStr">
+        <is>
+          <t>-34.78749125020943,173.1538859150851</t>
+        </is>
+      </c>
+      <c r="AA227" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0018/nzd0018.xlsx
+++ b/data/nzd0018/nzd0018.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA227"/>
+  <dimension ref="A1:AA229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18883,6 +18883,150 @@
         </is>
       </c>
     </row>
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>368.0327272727272</v>
+      </c>
+      <c r="C228" t="n">
+        <v>365.7327272727272</v>
+      </c>
+      <c r="D228" t="n">
+        <v>354.5966666666667</v>
+      </c>
+      <c r="E228" t="n">
+        <v>353.2766666666667</v>
+      </c>
+      <c r="F228" t="n">
+        <v>348.44</v>
+      </c>
+      <c r="G228" t="n">
+        <v>342.79</v>
+      </c>
+      <c r="H228" t="n">
+        <v>336.02</v>
+      </c>
+      <c r="I228" t="n">
+        <v>336.54</v>
+      </c>
+      <c r="J228" t="n">
+        <v>350.8966666666667</v>
+      </c>
+      <c r="K228" t="n">
+        <v>342.03</v>
+      </c>
+      <c r="L228" t="n">
+        <v>340.2127272727272</v>
+      </c>
+      <c r="M228" t="n">
+        <v>368.2927272727272</v>
+      </c>
+      <c r="N228" t="n">
+        <v>365.75</v>
+      </c>
+      <c r="O228" t="n">
+        <v>372.7866666666667</v>
+      </c>
+      <c r="P228" t="n">
+        <v>373.75</v>
+      </c>
+      <c r="Q228" t="n">
+        <v>374.12</v>
+      </c>
+      <c r="R228" t="n">
+        <v>365.3327272727273</v>
+      </c>
+      <c r="S228" t="n">
+        <v>365.84</v>
+      </c>
+      <c r="T228" t="n">
+        <v>367.35</v>
+      </c>
+      <c r="U228" t="n">
+        <v>371.73</v>
+      </c>
+      <c r="V228" t="n">
+        <v>356.42</v>
+      </c>
+      <c r="W228" t="n">
+        <v>335.5855555555555</v>
+      </c>
+      <c r="X228" t="inlineStr"/>
+      <c r="Y228" t="inlineStr"/>
+      <c r="Z228" t="inlineStr"/>
+      <c r="AA228" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:17:43+00:00</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr"/>
+      <c r="C229" t="inlineStr"/>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="n">
+        <v>363.9754545454546</v>
+      </c>
+      <c r="N229" t="n">
+        <v>353.55</v>
+      </c>
+      <c r="O229" t="n">
+        <v>338.6766666666667</v>
+      </c>
+      <c r="P229" t="n">
+        <v>337.18</v>
+      </c>
+      <c r="Q229" t="inlineStr"/>
+      <c r="R229" t="n">
+        <v>368.0454545454546</v>
+      </c>
+      <c r="S229" t="n">
+        <v>371.1</v>
+      </c>
+      <c r="T229" t="n">
+        <v>372.33</v>
+      </c>
+      <c r="U229" t="n">
+        <v>373.08</v>
+      </c>
+      <c r="V229" t="n">
+        <v>368.28</v>
+      </c>
+      <c r="W229" t="n">
+        <v>360.9488888888889</v>
+      </c>
+      <c r="X229" t="n">
+        <v>348.9788888888889</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>371.9288888888889</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>380.79</v>
+      </c>
+      <c r="AA229" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18894,7 +19038,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B230"/>
+  <dimension ref="A1:B232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21202,6 +21346,26 @@
       </c>
       <c r="B230" t="n">
         <v>-0.37</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>0.58</v>
       </c>
     </row>
   </sheetData>
@@ -21375,28 +21539,28 @@
         <v>0.0634</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1164463238913531</v>
+        <v>0.1011253053927218</v>
       </c>
       <c r="J2" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K2" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00544825668781912</v>
+        <v>0.004122502540595541</v>
       </c>
       <c r="M2" t="n">
-        <v>9.666417123286537</v>
+        <v>9.70418768773799</v>
       </c>
       <c r="N2" t="n">
-        <v>143.842264594958</v>
+        <v>144.3962022865463</v>
       </c>
       <c r="O2" t="n">
-        <v>11.99342589066852</v>
+        <v>12.01649708885856</v>
       </c>
       <c r="P2" t="n">
-        <v>381.1285503988212</v>
+        <v>381.2744618929161</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -21453,28 +21617,28 @@
         <v>0.0633</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1253206150101218</v>
+        <v>0.1135596736970754</v>
       </c>
       <c r="J3" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K3" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005467475021759372</v>
+        <v>0.004522051620773904</v>
       </c>
       <c r="M3" t="n">
-        <v>10.25294731710684</v>
+        <v>10.26964166484808</v>
       </c>
       <c r="N3" t="n">
-        <v>165.3772510738515</v>
+        <v>165.3088382910721</v>
       </c>
       <c r="O3" t="n">
-        <v>12.85990867284257</v>
+        <v>12.85724847279044</v>
       </c>
       <c r="P3" t="n">
-        <v>374.8823975870762</v>
+        <v>374.9943713335715</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -21531,28 +21695,28 @@
         <v>0.06710000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.03822848322302308</v>
+        <v>-0.05409851270263259</v>
       </c>
       <c r="J4" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K4" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0003696871579604855</v>
+        <v>0.0007437296632656354</v>
       </c>
       <c r="M4" t="n">
-        <v>12.14346068971756</v>
+        <v>12.17822108884733</v>
       </c>
       <c r="N4" t="n">
-        <v>225.7058384490607</v>
+        <v>225.932810628822</v>
       </c>
       <c r="O4" t="n">
-        <v>15.0235095250431</v>
+        <v>15.03106152701205</v>
       </c>
       <c r="P4" t="n">
-        <v>372.2186951962882</v>
+        <v>372.37108869876</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21609,28 +21773,28 @@
         <v>0.076</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.0848591821924341</v>
+        <v>-0.09724091188393987</v>
       </c>
       <c r="J5" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K5" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001364400025618995</v>
+        <v>0.00180562673422624</v>
       </c>
       <c r="M5" t="n">
-        <v>13.99997670067849</v>
+        <v>13.99087335575425</v>
       </c>
       <c r="N5" t="n">
-        <v>294.8966168283071</v>
+        <v>294.2230305094249</v>
       </c>
       <c r="O5" t="n">
-        <v>17.17255417310736</v>
+        <v>17.15293066823931</v>
       </c>
       <c r="P5" t="n">
-        <v>368.1824823076373</v>
+        <v>368.3037493775629</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21687,28 +21851,28 @@
         <v>0.0489</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1871494603718411</v>
+        <v>-0.2068542010101393</v>
       </c>
       <c r="J6" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K6" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004380087635961427</v>
+        <v>0.005382980535131976</v>
       </c>
       <c r="M6" t="n">
-        <v>17.20002018476344</v>
+        <v>17.20514849863372</v>
       </c>
       <c r="N6" t="n">
-        <v>442.8761120090881</v>
+        <v>442.4938272155612</v>
       </c>
       <c r="O6" t="n">
-        <v>21.0446219260192</v>
+        <v>21.03553724570783</v>
       </c>
       <c r="P6" t="n">
-        <v>372.6683766859081</v>
+        <v>372.8629245046632</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -21765,28 +21929,28 @@
         <v>0.0599</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3300500111795568</v>
+        <v>-0.3447726269915928</v>
       </c>
       <c r="J7" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K7" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01417438202960541</v>
+        <v>0.01557377558475026</v>
       </c>
       <c r="M7" t="n">
-        <v>17.2756561531094</v>
+        <v>17.2584604921922</v>
       </c>
       <c r="N7" t="n">
-        <v>429.2346141707305</v>
+        <v>428.2240810172981</v>
       </c>
       <c r="O7" t="n">
-        <v>20.71797804252941</v>
+        <v>20.69357583931057</v>
       </c>
       <c r="P7" t="n">
-        <v>366.5136818988912</v>
+        <v>366.6565777659908</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -21843,28 +22007,28 @@
         <v>0.056</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.002808579952608487</v>
+        <v>-0.02661217029976121</v>
       </c>
       <c r="J8" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K8" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L8" t="n">
-        <v>8.173278248646554e-07</v>
+        <v>7.384346906746941e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>19.22034921921533</v>
+        <v>19.22956499557996</v>
       </c>
       <c r="N8" t="n">
-        <v>537.9345726988284</v>
+        <v>537.8841789154066</v>
       </c>
       <c r="O8" t="n">
-        <v>23.19341658097893</v>
+        <v>23.19233017433579</v>
       </c>
       <c r="P8" t="n">
-        <v>359.269575737112</v>
+        <v>359.5034083091875</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -21921,28 +22085,28 @@
         <v>0.0611</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2559751202910335</v>
+        <v>-0.2789735185246817</v>
       </c>
       <c r="J9" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K9" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L9" t="n">
-        <v>0.008475951980635887</v>
+        <v>0.01009735312323923</v>
       </c>
       <c r="M9" t="n">
-        <v>16.85581626936838</v>
+        <v>16.87640506228379</v>
       </c>
       <c r="N9" t="n">
-        <v>428.9808585696896</v>
+        <v>429.4898974848215</v>
       </c>
       <c r="O9" t="n">
-        <v>20.71185309357156</v>
+        <v>20.72413803961027</v>
       </c>
       <c r="P9" t="n">
-        <v>366.3527819841983</v>
+        <v>366.5802954969315</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -21999,28 +22163,28 @@
         <v>0.0682</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0005585598043877872</v>
+        <v>-0.01513921796600245</v>
       </c>
       <c r="J10" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K10" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L10" t="n">
-        <v>5.038595018991288e-08</v>
+        <v>3.728030468042043e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>15.50148311307126</v>
+        <v>15.49723124598981</v>
       </c>
       <c r="N10" t="n">
-        <v>346.0508804214872</v>
+        <v>345.5263916183804</v>
       </c>
       <c r="O10" t="n">
-        <v>18.60244286166436</v>
+        <v>18.58834020611793</v>
       </c>
       <c r="P10" t="n">
-        <v>366.6551405333125</v>
+        <v>366.8113794266475</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -22077,28 +22241,28 @@
         <v>0.0471</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.005221033846538917</v>
+        <v>-0.02851701984469623</v>
       </c>
       <c r="J11" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K11" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L11" t="n">
-        <v>3.537577156209615e-06</v>
+        <v>0.0001059626274105829</v>
       </c>
       <c r="M11" t="n">
-        <v>16.57922386781205</v>
+        <v>16.61109236008028</v>
       </c>
       <c r="N11" t="n">
-        <v>425.3564038439662</v>
+        <v>425.9126337695524</v>
       </c>
       <c r="O11" t="n">
-        <v>20.62417037953202</v>
+        <v>20.63765087817779</v>
       </c>
       <c r="P11" t="n">
-        <v>365.3948705971002</v>
+        <v>365.6308830842283</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -22155,28 +22319,28 @@
         <v>0.06660000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2881094915850045</v>
+        <v>-0.3157967302539375</v>
       </c>
       <c r="J12" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K12" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01087634396548698</v>
+        <v>0.01305579606649643</v>
       </c>
       <c r="M12" t="n">
-        <v>16.95349015470798</v>
+        <v>16.99472073275809</v>
       </c>
       <c r="N12" t="n">
-        <v>420.1976980988928</v>
+        <v>422.0285226558452</v>
       </c>
       <c r="O12" t="n">
-        <v>20.49872430418275</v>
+        <v>20.54333280302505</v>
       </c>
       <c r="P12" t="n">
-        <v>375.8570515405117</v>
+        <v>376.1325476051493</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -22233,28 +22397,28 @@
         <v>0.0639</v>
       </c>
       <c r="I13" t="n">
-        <v>0.02101317802071991</v>
+        <v>-0.0133055084497925</v>
       </c>
       <c r="J13" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K13" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L13" t="n">
-        <v>7.933218969047307e-05</v>
+        <v>3.217798963384144e-05</v>
       </c>
       <c r="M13" t="n">
-        <v>14.84406973749962</v>
+        <v>14.84190022012515</v>
       </c>
       <c r="N13" t="n">
-        <v>319.5843229848707</v>
+        <v>319.6205529472797</v>
       </c>
       <c r="O13" t="n">
-        <v>17.87692151867515</v>
+        <v>17.87793480655078</v>
       </c>
       <c r="P13" t="n">
-        <v>383.720387363236</v>
+        <v>384.0507243019925</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -22311,28 +22475,28 @@
         <v>0.0561</v>
       </c>
       <c r="I14" t="n">
-        <v>0.09662016252158788</v>
+        <v>0.05013822115772525</v>
       </c>
       <c r="J14" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K14" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001621214912900126</v>
+        <v>0.0004380292216213943</v>
       </c>
       <c r="M14" t="n">
-        <v>14.6132936079247</v>
+        <v>14.66843699604461</v>
       </c>
       <c r="N14" t="n">
-        <v>328.7147728247617</v>
+        <v>331.7678263826295</v>
       </c>
       <c r="O14" t="n">
-        <v>18.13049290076698</v>
+        <v>18.2144949527191</v>
       </c>
       <c r="P14" t="n">
-        <v>382.1993474205396</v>
+        <v>382.6481449142092</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -22389,28 +22553,28 @@
         <v>0.0684</v>
       </c>
       <c r="I15" t="n">
-        <v>0.163168832506237</v>
+        <v>0.1061295081952573</v>
       </c>
       <c r="J15" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K15" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L15" t="n">
-        <v>0.005339981139173444</v>
+        <v>0.002222097559748781</v>
       </c>
       <c r="M15" t="n">
-        <v>13.63827310081801</v>
+        <v>13.7248098058441</v>
       </c>
       <c r="N15" t="n">
-        <v>282.1122383232136</v>
+        <v>290.9741614947593</v>
       </c>
       <c r="O15" t="n">
-        <v>16.79619713873392</v>
+        <v>17.05796475241872</v>
       </c>
       <c r="P15" t="n">
-        <v>382.0226502316717</v>
+        <v>382.5781283686204</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -22467,28 +22631,28 @@
         <v>0.0551</v>
       </c>
       <c r="I16" t="n">
-        <v>0.07277713694930014</v>
+        <v>0.01019140647344855</v>
       </c>
       <c r="J16" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K16" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001082252190021005</v>
+        <v>2.066633385355843e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>13.55764066858521</v>
+        <v>13.73227985513925</v>
       </c>
       <c r="N16" t="n">
-        <v>276.2239089139733</v>
+        <v>287.2455553712767</v>
       </c>
       <c r="O16" t="n">
-        <v>16.61998522604558</v>
+        <v>16.94832013419845</v>
       </c>
       <c r="P16" t="n">
-        <v>387.1555936058844</v>
+        <v>387.7651561282157</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -22545,28 +22709,28 @@
         <v>0.0601</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.1522400845151358</v>
+        <v>-0.1652906296375158</v>
       </c>
       <c r="J17" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K17" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L17" t="n">
-        <v>0.004558908891625912</v>
+        <v>0.005411337734911092</v>
       </c>
       <c r="M17" t="n">
-        <v>13.62418084927559</v>
+        <v>13.61399738219537</v>
       </c>
       <c r="N17" t="n">
-        <v>282.7537284007978</v>
+        <v>282.2887715166304</v>
       </c>
       <c r="O17" t="n">
-        <v>16.81528258462515</v>
+        <v>16.80145147053166</v>
       </c>
       <c r="P17" t="n">
-        <v>391.7665076957117</v>
+        <v>391.8928130289862</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -22623,28 +22787,28 @@
         <v>0.06610000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.03123693737716328</v>
+        <v>-0.06800638724306182</v>
       </c>
       <c r="J18" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K18" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0001824689834499793</v>
+        <v>0.0008726309704365498</v>
       </c>
       <c r="M18" t="n">
-        <v>14.03967408101889</v>
+        <v>14.05604008875083</v>
       </c>
       <c r="N18" t="n">
-        <v>299.0267084769287</v>
+        <v>299.6628350454424</v>
       </c>
       <c r="O18" t="n">
-        <v>17.29238874409573</v>
+        <v>17.31077222556644</v>
       </c>
       <c r="P18" t="n">
-        <v>386.8456059943368</v>
+        <v>387.2058882805152</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -22701,28 +22865,28 @@
         <v>0.0581</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.1133297907345668</v>
+        <v>-0.146223465136611</v>
       </c>
       <c r="J19" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K19" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L19" t="n">
-        <v>0.002631852397707579</v>
+        <v>0.004421571882370023</v>
       </c>
       <c r="M19" t="n">
-        <v>13.46112173231356</v>
+        <v>13.4776134107401</v>
       </c>
       <c r="N19" t="n">
-        <v>274.3626040947838</v>
+        <v>274.5878167491218</v>
       </c>
       <c r="O19" t="n">
-        <v>16.56389459320433</v>
+        <v>16.5706914988217</v>
       </c>
       <c r="P19" t="n">
-        <v>388.7287690647912</v>
+        <v>389.0491712601388</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -22779,28 +22943,28 @@
         <v>0.0475</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.1236625602561462</v>
+        <v>-0.1554894893527413</v>
       </c>
       <c r="J20" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K20" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0027736350594737</v>
+        <v>0.004433914250853932</v>
       </c>
       <c r="M20" t="n">
-        <v>14.10948304919024</v>
+        <v>14.11930410107017</v>
       </c>
       <c r="N20" t="n">
-        <v>307.4129160626872</v>
+        <v>307.1498403325067</v>
       </c>
       <c r="O20" t="n">
-        <v>17.53319469071986</v>
+        <v>17.52569086605452</v>
       </c>
       <c r="P20" t="n">
-        <v>389.8617280553941</v>
+        <v>390.1724385191406</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -22857,28 +23021,28 @@
         <v>0.0455</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.1561353048633717</v>
+        <v>-0.1889377884908621</v>
       </c>
       <c r="J21" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K21" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L21" t="n">
-        <v>0.004179942777529089</v>
+        <v>0.00618615358351049</v>
       </c>
       <c r="M21" t="n">
-        <v>14.32560081622845</v>
+        <v>14.34240829671968</v>
       </c>
       <c r="N21" t="n">
-        <v>325.5323448257886</v>
+        <v>325.2462865769346</v>
       </c>
       <c r="O21" t="n">
-        <v>18.04251492519235</v>
+        <v>18.03458584434183</v>
       </c>
       <c r="P21" t="n">
-        <v>393.9115856064404</v>
+        <v>394.2315596995388</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -22935,28 +23099,28 @@
         <v>0.045</v>
       </c>
       <c r="I22" t="n">
-        <v>0.03851608135657224</v>
+        <v>-0.003938935688143129</v>
       </c>
       <c r="J22" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K22" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0002032268956996264</v>
+        <v>2.142720441522528e-06</v>
       </c>
       <c r="M22" t="n">
-        <v>16.74863668748629</v>
+        <v>16.80938191662168</v>
       </c>
       <c r="N22" t="n">
-        <v>440.735860624433</v>
+        <v>441.8648924673204</v>
       </c>
       <c r="O22" t="n">
-        <v>20.99371002525359</v>
+        <v>21.02058259105395</v>
       </c>
       <c r="P22" t="n">
-        <v>384.4237888408608</v>
+        <v>384.8241429547237</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -23013,28 +23177,28 @@
         <v>0.048</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.1229721286621732</v>
+        <v>-0.1815972893729365</v>
       </c>
       <c r="J23" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K23" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L23" t="n">
-        <v>0.001561756620286792</v>
+        <v>0.003410529412309793</v>
       </c>
       <c r="M23" t="n">
-        <v>19.26390036843874</v>
+        <v>19.40738914601394</v>
       </c>
       <c r="N23" t="n">
-        <v>571.2422289534778</v>
+        <v>575.9674893990222</v>
       </c>
       <c r="O23" t="n">
-        <v>23.90067423637831</v>
+        <v>23.99932268625559</v>
       </c>
       <c r="P23" t="n">
-        <v>381.0993288457636</v>
+        <v>381.6587349828424</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -23091,28 +23255,28 @@
         <v>0.0492</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3703322133092345</v>
+        <v>0.3308601360623019</v>
       </c>
       <c r="J24" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K24" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0182738895700435</v>
+        <v>0.01451753000131095</v>
       </c>
       <c r="M24" t="n">
-        <v>16.72747958947508</v>
+        <v>16.82951540488788</v>
       </c>
       <c r="N24" t="n">
-        <v>415.8169495246932</v>
+        <v>421.7939376461798</v>
       </c>
       <c r="O24" t="n">
-        <v>20.39159016665187</v>
+        <v>20.53762249254231</v>
       </c>
       <c r="P24" t="n">
-        <v>379.5031904007066</v>
+        <v>379.8937639630047</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -23169,28 +23333,28 @@
         <v>0.051</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4595931260992145</v>
+        <v>0.4385252862063033</v>
       </c>
       <c r="J25" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K25" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L25" t="n">
-        <v>0.03017172624263764</v>
+        <v>0.0276727175579522</v>
       </c>
       <c r="M25" t="n">
-        <v>15.72504329195796</v>
+        <v>15.75140962433039</v>
       </c>
       <c r="N25" t="n">
-        <v>384.2117631053503</v>
+        <v>384.5763119293574</v>
       </c>
       <c r="O25" t="n">
-        <v>19.60132044290257</v>
+        <v>19.61061732657484</v>
       </c>
       <c r="P25" t="n">
-        <v>381.4957502362524</v>
+        <v>381.7034826213644</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
@@ -23247,28 +23411,28 @@
         <v>0.056</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2701721258817435</v>
+        <v>0.2595740284060579</v>
       </c>
       <c r="J26" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K26" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0125841416136262</v>
+        <v>0.01173649215439354</v>
       </c>
       <c r="M26" t="n">
-        <v>14.14125165431226</v>
+        <v>14.11642698580492</v>
       </c>
       <c r="N26" t="n">
-        <v>325.752329621969</v>
+        <v>324.6523879448229</v>
       </c>
       <c r="O26" t="n">
-        <v>18.0486101853292</v>
+        <v>18.01811277422868</v>
       </c>
       <c r="P26" t="n">
-        <v>384.3946833705515</v>
+        <v>384.4980653772251</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -23306,7 +23470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA227"/>
+  <dimension ref="A1:AA229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51709,6 +51873,220 @@
         </is>
       </c>
     </row>
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>-34.77188821227532,173.1491756411448</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>-34.77244584787091,173.14858808314654</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>-34.77300369929822,173.14798643430765</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>-34.77367746347601,173.14759924220942</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>-34.77434971447047,173.14717261574313</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>-34.77508944632302,173.14696733072384</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>-34.77583102410069,173.14676745024008</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>-34.776590046594805,173.14677314408831</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>-34.777333699169,173.14697399148255</t>
+        </is>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>-34.77808248738275,173.1470290785403</t>
+        </is>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>-34.77881261895526,173.14717196177264</t>
+        </is>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>-34.7794890583217,173.14763516274425</t>
+        </is>
+      </c>
+      <c r="N228" t="inlineStr">
+        <is>
+          <t>-34.78017883364647,173.14793243095988</t>
+        </is>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>-34.78083000311747,173.14836076462666</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>-34.78150055137659,173.14872694592998</t>
+        </is>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>-34.78214570866837,173.14913879208157</t>
+        </is>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>-34.782806326023454,173.1495395946519</t>
+        </is>
+      </c>
+      <c r="S228" t="inlineStr">
+        <is>
+          <t>-34.78342538401415,173.15002832170055</t>
+        </is>
+      </c>
+      <c r="T228" t="inlineStr">
+        <is>
+          <t>-34.78403956310338,173.15052628005338</t>
+        </is>
+      </c>
+      <c r="U228" t="inlineStr">
+        <is>
+          <t>-34.78463702867512,173.15104875243583</t>
+        </is>
+      </c>
+      <c r="V228" t="inlineStr">
+        <is>
+          <t>-34.78530144224023,173.15146621476617</t>
+        </is>
+      </c>
+      <c r="W228" t="inlineStr">
+        <is>
+          <t>-34.785987819680024,173.15186576105822</t>
+        </is>
+      </c>
+      <c r="X228" t="inlineStr"/>
+      <c r="Y228" t="inlineStr"/>
+      <c r="Z228" t="inlineStr"/>
+      <c r="AA228" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:17:43+00:00</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr"/>
+      <c r="C229" t="inlineStr"/>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>-34.77949968265755,173.1475897683268</t>
+        </is>
+      </c>
+      <c r="N229" t="inlineStr">
+        <is>
+          <t>-34.78022072341783,173.14780913457903</t>
+        </is>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>-34.780952635194396,173.14801886466205</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>-34.78164223218223,173.14836601386412</t>
+        </is>
+      </c>
+      <c r="Q229" t="inlineStr"/>
+      <c r="R229" t="inlineStr">
+        <is>
+          <t>-34.78279313975281,173.14956456814187</t>
+        </is>
+      </c>
+      <c r="S229" t="inlineStr">
+        <is>
+          <t>-34.78339981560007,173.1500767457532</t>
+        </is>
+      </c>
+      <c r="T229" t="inlineStr">
+        <is>
+          <t>-34.78401535562459,173.1505721266433</t>
+        </is>
+      </c>
+      <c r="U229" t="inlineStr">
+        <is>
+          <t>-34.784630002699885,173.15106080265934</t>
+        </is>
+      </c>
+      <c r="V229" t="inlineStr">
+        <is>
+          <t>-34.78523435265883,173.15156716982108</t>
+        </is>
+      </c>
+      <c r="W229" t="inlineStr">
+        <is>
+          <t>-34.78584275711545,173.15208009721735</t>
+        </is>
+      </c>
+      <c r="X229" t="inlineStr">
+        <is>
+          <t>-34.7864837108095,173.15254127891563</t>
+        </is>
+      </c>
+      <c r="Y229" t="inlineStr">
+        <is>
+          <t>-34.78693673392305,173.15329123395503</t>
+        </is>
+      </c>
+      <c r="Z229" t="inlineStr">
+        <is>
+          <t>-34.78746881047109,173.15392070336551</t>
+        </is>
+      </c>
+      <c r="AA229" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0018/nzd0018.xlsx
+++ b/data/nzd0018/nzd0018.xlsx
@@ -21530,13 +21530,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.055</v>
+        <v>0.08</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0519</v>
+        <v>0.07190000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0634</v>
+        <v>0.0919</v>
       </c>
       <c r="I2" t="n">
         <v>0.1011369732098348</v>
@@ -21608,13 +21608,13 @@
         <v>0.04170621367720102</v>
       </c>
       <c r="F3" t="n">
-        <v>0.055</v>
+        <v>0.09</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0498</v>
+        <v>0.0722</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0633</v>
+        <v>0.1142</v>
       </c>
       <c r="I3" t="n">
         <v>0.1135652208165401</v>
@@ -21686,13 +21686,13 @@
         <v>0.08308391350397829</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0506</v>
+        <v>0.0566</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06710000000000001</v>
+        <v>0.0921</v>
       </c>
       <c r="I4" t="n">
         <v>-0.05404536629510872</v>
@@ -21764,13 +21764,13 @@
         <v>0.1247901271810429</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06</v>
+        <v>0.075</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0531</v>
+        <v>0.0575</v>
       </c>
       <c r="H5" t="n">
-        <v>0.076</v>
+        <v>0.0993</v>
       </c>
       <c r="I5" t="n">
         <v>-0.09718125690220762</v>
@@ -21842,13 +21842,13 @@
         <v>0.166496340857468</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0362</v>
+        <v>0.043</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0489</v>
+        <v>0.0849</v>
       </c>
       <c r="I6" t="n">
         <v>-0.2068542010101393</v>
@@ -21920,13 +21920,13 @@
         <v>0.2081089761170301</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0439</v>
+        <v>0.0472</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0599</v>
+        <v>0.07539999999999999</v>
       </c>
       <c r="I7" t="n">
         <v>-0.3447726269915929</v>
@@ -22001,10 +22001,10 @@
         <v>0.05</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0421</v>
+        <v>0.0403</v>
       </c>
       <c r="H8" t="n">
-        <v>0.056</v>
+        <v>0.0603</v>
       </c>
       <c r="I8" t="n">
         <v>-0.02661217029976121</v>
@@ -22076,13 +22076,13 @@
         <v>0.2913841480189618</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G9" t="n">
-        <v>0.046</v>
+        <v>0.0498</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0611</v>
+        <v>0.0815</v>
       </c>
       <c r="I9" t="n">
         <v>-0.278973518524682</v>
@@ -22154,13 +22154,13 @@
         <v>0.3330903616958277</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0538</v>
+        <v>0.0595</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0682</v>
+        <v>0.121</v>
       </c>
       <c r="I10" t="n">
         <v>-0.01508856101054184</v>
@@ -22232,13 +22232,13 @@
         <v>0.3747604047488449</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04</v>
+        <v>0.065</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0369</v>
+        <v>0.051</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0471</v>
+        <v>0.0854</v>
       </c>
       <c r="I11" t="n">
         <v>-0.02851701984469623</v>
@@ -22310,13 +22310,13 @@
         <v>0.4164666184255997</v>
       </c>
       <c r="F12" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G12" t="n">
-        <v>0.047</v>
+        <v>0.0524</v>
       </c>
       <c r="H12" t="n">
-        <v>0.06660000000000001</v>
+        <v>0.0849</v>
       </c>
       <c r="I12" t="n">
         <v>-0.3157777636266788</v>
@@ -22388,13 +22388,13 @@
         <v>0.4581728321024562</v>
       </c>
       <c r="F13" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0486</v>
+        <v>0.0521</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0639</v>
+        <v>0.09039999999999999</v>
       </c>
       <c r="I13" t="n">
         <v>-0.01328272157250939</v>
@@ -22466,13 +22466,13 @@
         <v>0.4997248026188837</v>
       </c>
       <c r="F14" t="n">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0442</v>
+        <v>0.0533</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0561</v>
+        <v>0.0776</v>
       </c>
       <c r="I14" t="n">
         <v>0.05013822115772525</v>
@@ -22544,13 +22544,13 @@
         <v>0.5414310162954871</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06</v>
+        <v>0.065</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0512</v>
+        <v>0.0548</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0684</v>
+        <v>0.0732</v>
       </c>
       <c r="I15" t="n">
         <v>0.1061766958826925</v>
@@ -22622,13 +22622,13 @@
         <v>0.5831372299720904</v>
       </c>
       <c r="F16" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0429</v>
+        <v>0.0544</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0551</v>
+        <v>0.07340000000000001</v>
       </c>
       <c r="I16" t="n">
         <v>0.01019140647344862</v>
@@ -22700,13 +22700,13 @@
         <v>0.6247138897678792</v>
       </c>
       <c r="F17" t="n">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0449</v>
+        <v>0.0533</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0601</v>
+        <v>0.0848</v>
       </c>
       <c r="I17" t="n">
         <v>-0.1652906296375159</v>
@@ -22778,13 +22778,13 @@
         <v>0.6664201034448852</v>
       </c>
       <c r="F18" t="n">
-        <v>0.055</v>
+        <v>0.06</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0477</v>
+        <v>0.0539</v>
       </c>
       <c r="H18" t="n">
-        <v>0.06610000000000001</v>
+        <v>0.0733</v>
       </c>
       <c r="I18" t="n">
         <v>-0.06798247056800401</v>
@@ -22856,13 +22856,13 @@
         <v>0.7081263171218913</v>
       </c>
       <c r="F19" t="n">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0453</v>
+        <v>0.055</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0581</v>
+        <v>0.0762</v>
       </c>
       <c r="I19" t="n">
         <v>-0.146223465136611</v>
@@ -22934,13 +22934,13 @@
         <v>0.7498325307980602</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0382</v>
+        <v>0.048</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0475</v>
+        <v>0.06519999999999999</v>
       </c>
       <c r="I20" t="n">
         <v>-0.1554894893527413</v>
@@ -23012,13 +23012,13 @@
         <v>0.7915387444745755</v>
       </c>
       <c r="F21" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0378</v>
+        <v>0.047</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0455</v>
+        <v>0.0626</v>
       </c>
       <c r="I21" t="n">
         <v>-0.1889377884908621</v>
@@ -23093,10 +23093,10 @@
         <v>0.04</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0337</v>
+        <v>0.0381</v>
       </c>
       <c r="H22" t="n">
-        <v>0.045</v>
+        <v>0.0489</v>
       </c>
       <c r="I22" t="n">
         <v>-0.003938935688143129</v>
@@ -23168,13 +23168,13 @@
         <v>0.8748864894890594</v>
       </c>
       <c r="F23" t="n">
-        <v>0.045</v>
+        <v>0.035</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0391</v>
+        <v>0.0325</v>
       </c>
       <c r="H23" t="n">
-        <v>0.048</v>
+        <v>0.0421</v>
       </c>
       <c r="I23" t="n">
         <v>-0.1815479852510898</v>
@@ -23249,10 +23249,10 @@
         <v>0.045</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0382</v>
+        <v>0.0394</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0492</v>
+        <v>0.0504</v>
       </c>
       <c r="I24" t="n">
         <v>0.3309136176580483</v>
@@ -23324,13 +23324,13 @@
         <v>0.9582937863239613</v>
       </c>
       <c r="F25" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0386</v>
+        <v>0.043</v>
       </c>
       <c r="H25" t="n">
-        <v>0.051</v>
+        <v>0.0557</v>
       </c>
       <c r="I25" t="n">
         <v>0.4385767878959543</v>
@@ -23402,13 +23402,13 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0443</v>
+        <v>0.0481</v>
       </c>
       <c r="H26" t="n">
-        <v>0.056</v>
+        <v>0.0736</v>
       </c>
       <c r="I26" t="n">
         <v>0.2595740284060584</v>
